--- a/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_8_19.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_8_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>258065.5261939383</v>
+        <v>256361.1740572267</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673437</v>
+        <v>603248.4937673436</v>
       </c>
     </row>
     <row r="9">
@@ -656,22 +656,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>241.0142888776591</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>241.0142888776591</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -716,16 +716,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>168.1666138174382</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="3">
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -747,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -783,28 +783,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>95.09934912876552</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>30.86155971440646</v>
       </c>
     </row>
     <row r="4">
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>14.83685490770591</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -838,10 +838,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -856,7 +856,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -902,13 +902,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>18.29749587628863</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>33.60023339142367</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -972,28 +972,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>110.0817264605106</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1035,13 +1035,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>83.72646317855323</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1139,13 +1139,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>40.47627913313517</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>241.0142888776591</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>241.0142888776591</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1181,16 +1181,16 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>68.21015448122992</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1209,28 +1209,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>146.1932996118735</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1269,16 +1269,16 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>116.325098768111</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1306,16 +1306,16 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>14.83685490770591</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1330,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>362.3140662372056</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>344.8531163447326</v>
+        <v>344.8531163447327</v>
       </c>
       <c r="D11" t="n">
-        <v>334.263266194408</v>
+        <v>334.2632661944081</v>
       </c>
       <c r="E11" t="n">
-        <v>361.5105946459868</v>
+        <v>361.5105946459869</v>
       </c>
       <c r="F11" t="n">
         <v>386.4562703154365</v>
       </c>
       <c r="G11" t="n">
-        <v>392.5197736437241</v>
+        <v>392.5197736437242</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>98.94929161302575</v>
+        <v>98.94929161302581</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>134.749137466434</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>192.3312167192737</v>
       </c>
       <c r="U11" t="n">
-        <v>104.3811298012837</v>
+        <v>230.7368224059507</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>178.3762943796983</v>
       </c>
       <c r="W11" t="n">
         <v>328.8211932911381</v>
@@ -1436,7 +1436,7 @@
         <v>349.3113252521941</v>
       </c>
       <c r="Y11" t="n">
-        <v>365.8181632297786</v>
+        <v>365.8181632297787</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1464,10 @@
         <v>136.0790998739098</v>
       </c>
       <c r="H12" t="n">
-        <v>100.0238351529859</v>
+        <v>100.0238351529858</v>
       </c>
       <c r="I12" t="n">
-        <v>45.86296740838224</v>
+        <v>45.86296740838223</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>21.65304841868479</v>
+        <v>21.65304841868478</v>
       </c>
       <c r="S12" t="n">
         <v>148.1971745240615</v>
@@ -1528,16 +1528,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>146.8270456723529</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>126.0141872202943</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>91.64850103875894</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.2101389041963</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>185.1231296267668</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1585,16 +1585,16 @@
         <v>265.8414332948985</v>
       </c>
       <c r="V13" t="n">
-        <v>231.717867897553</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>266.103222910316</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>161.0019116545007</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>198.1648779258198</v>
+        <v>198.1648779258199</v>
       </c>
     </row>
     <row r="14">
@@ -1610,22 +1610,22 @@
         <v>344.8531163447327</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>334.2632661944081</v>
       </c>
       <c r="E14" t="n">
         <v>361.5105946459869</v>
       </c>
       <c r="F14" t="n">
-        <v>386.4562703154366</v>
+        <v>143.7163734652231</v>
       </c>
       <c r="G14" t="n">
         <v>392.5197736437242</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8530230257434</v>
+        <v>294.8530230257433</v>
       </c>
       <c r="I14" t="n">
-        <v>70.15731900554682</v>
+        <v>98.94929161302581</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,22 +1655,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>134.7491374664341</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>192.3312167192737</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>230.7368224059507</v>
       </c>
       <c r="V14" t="n">
-        <v>307.3324830438601</v>
+        <v>307.33248304386</v>
       </c>
       <c r="W14" t="n">
-        <v>328.8211932911382</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>349.3113252521942</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>365.8181632297787</v>
@@ -1701,10 +1701,10 @@
         <v>136.0790998739098</v>
       </c>
       <c r="H15" t="n">
-        <v>100.0238351529859</v>
+        <v>100.0238351529858</v>
       </c>
       <c r="I15" t="n">
-        <v>45.86296740838224</v>
+        <v>45.86296740838223</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>21.65304841868479</v>
+        <v>21.65304841868478</v>
       </c>
       <c r="S15" t="n">
         <v>148.1971745240615</v>
@@ -1765,7 +1765,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>146.8270456723529</v>
       </c>
       <c r="D16" t="n">
         <v>128.1956975919375</v>
@@ -1774,16 +1774,16 @@
         <v>126.0141872202943</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>125.0012725966564</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>63.42332123296972</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>103.1522558959535</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.2101389041964</v>
+        <v>109.2101389041963</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1822,16 +1822,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>231.7178678975532</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>266.1032229103162</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>205.2898799627623</v>
       </c>
       <c r="Y16" t="n">
-        <v>198.16487792582</v>
+        <v>179.1388358389345</v>
       </c>
     </row>
     <row r="17">
@@ -1841,28 +1841,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>300.922571877636</v>
+        <v>300.9225718776361</v>
       </c>
       <c r="C17" t="n">
         <v>283.461621985163</v>
       </c>
       <c r="D17" t="n">
-        <v>272.8717718348384</v>
+        <v>272.8717718348385</v>
       </c>
       <c r="E17" t="n">
-        <v>300.1191002864172</v>
+        <v>300.1191002864173</v>
       </c>
       <c r="F17" t="n">
         <v>325.0647759558669</v>
       </c>
       <c r="G17" t="n">
-        <v>331.1282792841545</v>
+        <v>331.1282792841546</v>
       </c>
       <c r="H17" t="n">
-        <v>233.4615286661736</v>
+        <v>233.4615286661737</v>
       </c>
       <c r="I17" t="n">
-        <v>37.55779725345616</v>
+        <v>37.55779725345622</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,16 +1892,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>73.35764310686446</v>
+        <v>73.35764310686451</v>
       </c>
       <c r="T17" t="n">
-        <v>130.939722359704</v>
+        <v>130.9397223597041</v>
       </c>
       <c r="U17" t="n">
-        <v>169.3453280463811</v>
+        <v>169.3453280463812</v>
       </c>
       <c r="V17" t="n">
-        <v>245.9409886842903</v>
+        <v>245.9409886842904</v>
       </c>
       <c r="W17" t="n">
         <v>267.4296989315685</v>
@@ -1910,7 +1910,7 @@
         <v>287.9198308926245</v>
       </c>
       <c r="Y17" t="n">
-        <v>304.426668870209</v>
+        <v>304.4266688702091</v>
       </c>
     </row>
     <row r="18">
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>98.02071039609275</v>
+        <v>98.02071039609281</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>85.43555131278335</v>
       </c>
       <c r="D19" t="n">
-        <v>66.80420323236781</v>
+        <v>66.80420323236787</v>
       </c>
       <c r="E19" t="n">
-        <v>64.62269286072463</v>
+        <v>55.90419120460002</v>
       </c>
       <c r="F19" t="n">
-        <v>63.6097782370867</v>
+        <v>63.60977823708676</v>
       </c>
       <c r="G19" t="n">
-        <v>85.11966459179399</v>
+        <v>85.11966459179405</v>
       </c>
       <c r="H19" t="n">
-        <v>70.99113916484797</v>
+        <v>70.99113916484802</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>41.76076153638387</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>47.81864454462666</v>
+        <v>47.81864454462671</v>
       </c>
       <c r="S19" t="n">
-        <v>123.7316352671971</v>
+        <v>123.7316352671972</v>
       </c>
       <c r="T19" t="n">
-        <v>123.3094641693616</v>
+        <v>141.6050365425688</v>
       </c>
       <c r="U19" t="n">
         <v>204.4499389353289</v>
       </c>
       <c r="V19" t="n">
-        <v>170.3263735379834</v>
+        <v>170.3263735379835</v>
       </c>
       <c r="W19" t="n">
-        <v>204.7117285507464</v>
+        <v>204.7117285507465</v>
       </c>
       <c r="X19" t="n">
-        <v>143.8983856031926</v>
+        <v>143.8983856031927</v>
       </c>
       <c r="Y19" t="n">
-        <v>136.7733835662502</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>233.4615286661736</v>
       </c>
       <c r="I20" t="n">
-        <v>37.55779725345614</v>
+        <v>37.55779725345616</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2251,13 +2251,13 @@
         <v>63.6097782370867</v>
       </c>
       <c r="G22" t="n">
-        <v>85.11966459179399</v>
+        <v>85.11966459179401</v>
       </c>
       <c r="H22" t="n">
-        <v>70.99113916484798</v>
+        <v>70.99113916484797</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>41.76076153638381</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>47.81864454462666</v>
+        <v>46.22514492544536</v>
       </c>
       <c r="S22" t="n">
         <v>123.7316352671971</v>
@@ -2302,10 +2302,10 @@
         <v>204.7117285507464</v>
       </c>
       <c r="X22" t="n">
-        <v>143.8983856031926</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>33.04225988026021</v>
+        <v>136.7733835662502</v>
       </c>
     </row>
     <row r="23">
@@ -2369,7 +2369,7 @@
         <v>73.35764310686446</v>
       </c>
       <c r="T23" t="n">
-        <v>130.9397223597044</v>
+        <v>130.939722359704</v>
       </c>
       <c r="U23" t="n">
         <v>169.3453280463811</v>
@@ -2476,16 +2476,16 @@
         <v>98.02071039609275</v>
       </c>
       <c r="C25" t="n">
-        <v>85.43555131278329</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>66.80420323236781</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>64.62269286072463</v>
       </c>
       <c r="F25" t="n">
-        <v>63.6097782370867</v>
+        <v>3.553444327495825</v>
       </c>
       <c r="G25" t="n">
         <v>85.11966459179401</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>33.75365541534548</v>
+        <v>47.81864454462665</v>
       </c>
       <c r="S25" t="n">
         <v>123.7316352671971</v>
@@ -2552,28 +2552,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>300.9225718776362</v>
+        <v>300.9225718776361</v>
       </c>
       <c r="C26" t="n">
-        <v>283.4616219851631</v>
+        <v>283.461621985163</v>
       </c>
       <c r="D26" t="n">
-        <v>272.8717718348386</v>
+        <v>272.8717718348385</v>
       </c>
       <c r="E26" t="n">
-        <v>300.1191002864174</v>
+        <v>300.1191002864173</v>
       </c>
       <c r="F26" t="n">
-        <v>325.064775955867</v>
+        <v>325.0647759558669</v>
       </c>
       <c r="G26" t="n">
-        <v>331.1282792841547</v>
+        <v>331.1282792841546</v>
       </c>
       <c r="H26" t="n">
-        <v>233.4615286661738</v>
+        <v>233.4615286661737</v>
       </c>
       <c r="I26" t="n">
-        <v>37.55779725345629</v>
+        <v>37.55779725345619</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,22 +2603,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>73.35764310686457</v>
+        <v>73.35764310686447</v>
       </c>
       <c r="T26" t="n">
-        <v>130.9397223597041</v>
+        <v>130.939722359704</v>
       </c>
       <c r="U26" t="n">
-        <v>169.3453280463812</v>
+        <v>169.3453280463811</v>
       </c>
       <c r="V26" t="n">
-        <v>245.9409886842905</v>
+        <v>245.9409886842904</v>
       </c>
       <c r="W26" t="n">
-        <v>267.4296989315686</v>
+        <v>267.4296989315685</v>
       </c>
       <c r="X26" t="n">
-        <v>287.9198308926246</v>
+        <v>287.9198308926245</v>
       </c>
       <c r="Y26" t="n">
         <v>304.4266688702091</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>98.02071039609288</v>
+        <v>98.02071039609278</v>
       </c>
       <c r="C28" t="n">
-        <v>3.553444327492969</v>
+        <v>81.54870263297788</v>
       </c>
       <c r="D28" t="n">
-        <v>66.80420323236794</v>
+        <v>66.80420323236784</v>
       </c>
       <c r="E28" t="n">
-        <v>64.62269286072475</v>
+        <v>64.62269286072465</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>63.60977823708673</v>
       </c>
       <c r="G28" t="n">
-        <v>85.11966459179413</v>
+        <v>85.11966459179403</v>
       </c>
       <c r="H28" t="n">
-        <v>70.99113916484809</v>
+        <v>70.99113916484801</v>
       </c>
       <c r="I28" t="n">
-        <v>41.76076153638394</v>
+        <v>41.76076153638384</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>47.81864454462678</v>
+        <v>47.81864454462668</v>
       </c>
       <c r="S28" t="n">
-        <v>123.7316352671973</v>
+        <v>123.7316352671972</v>
       </c>
       <c r="T28" t="n">
-        <v>141.6050365425689</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>204.449938935329</v>
+        <v>204.4499389353289</v>
       </c>
       <c r="V28" t="n">
-        <v>170.3263735379836</v>
+        <v>170.3263735379835</v>
       </c>
       <c r="W28" t="n">
-        <v>204.7117285507466</v>
+        <v>204.7117285507465</v>
       </c>
       <c r="X28" t="n">
         <v>143.8983856031927</v>
       </c>
       <c r="Y28" t="n">
-        <v>136.7733835662504</v>
+        <v>136.7733835662503</v>
       </c>
     </row>
     <row r="29">
@@ -2789,28 +2789,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>300.9225718776361</v>
+        <v>300.922571877636</v>
       </c>
       <c r="C29" t="n">
         <v>283.461621985163</v>
       </c>
       <c r="D29" t="n">
-        <v>272.8717718348385</v>
+        <v>272.8717718348384</v>
       </c>
       <c r="E29" t="n">
-        <v>300.1191002864173</v>
+        <v>300.1191002864172</v>
       </c>
       <c r="F29" t="n">
         <v>325.0647759558669</v>
       </c>
       <c r="G29" t="n">
-        <v>331.1282792841546</v>
+        <v>331.1282792841545</v>
       </c>
       <c r="H29" t="n">
-        <v>233.4615286661737</v>
+        <v>233.4615286661736</v>
       </c>
       <c r="I29" t="n">
-        <v>37.55779725345617</v>
+        <v>37.55779725345616</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2849,7 +2849,7 @@
         <v>169.3453280463811</v>
       </c>
       <c r="V29" t="n">
-        <v>245.9409886842904</v>
+        <v>245.9409886842903</v>
       </c>
       <c r="W29" t="n">
         <v>267.4296989315685</v>
@@ -2889,7 +2889,7 @@
         <v>100.0238351529859</v>
       </c>
       <c r="I30" t="n">
-        <v>45.86296740838224</v>
+        <v>45.86296740838225</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>21.65304841868479</v>
+        <v>21.6530484186848</v>
       </c>
       <c r="S30" t="n">
         <v>148.1971745240615</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>98.02071039609277</v>
+        <v>98.02071039609275</v>
       </c>
       <c r="C31" t="n">
-        <v>85.4355513127833</v>
+        <v>85.43555131278329</v>
       </c>
       <c r="D31" t="n">
-        <v>66.80420323236783</v>
+        <v>66.80420323236781</v>
       </c>
       <c r="E31" t="n">
-        <v>64.62269286072464</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>63.60977823708672</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>85.11966459179401</v>
       </c>
       <c r="H31" t="n">
-        <v>70.99113916484798</v>
+        <v>70.99113916484797</v>
       </c>
       <c r="I31" t="n">
-        <v>41.76076153638382</v>
+        <v>24.50134741182113</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>47.81864454462666</v>
       </c>
       <c r="S31" t="n">
-        <v>123.7316352671972</v>
+        <v>123.7316352671971</v>
       </c>
       <c r="T31" t="n">
-        <v>43.93179586482097</v>
+        <v>141.6050365425687</v>
       </c>
       <c r="U31" t="n">
         <v>204.4499389353289</v>
       </c>
       <c r="V31" t="n">
-        <v>170.3263735379835</v>
+        <v>170.3263735379834</v>
       </c>
       <c r="W31" t="n">
-        <v>204.7117285507465</v>
+        <v>204.7117285507464</v>
       </c>
       <c r="X31" t="n">
         <v>143.8983856031926</v>
       </c>
       <c r="Y31" t="n">
-        <v>136.7733835662503</v>
+        <v>136.7733835662502</v>
       </c>
     </row>
     <row r="32">
@@ -3032,22 +3032,22 @@
         <v>277.3589792373368</v>
       </c>
       <c r="D32" t="n">
-        <v>266.7691290870123</v>
+        <v>266.7691290870122</v>
       </c>
       <c r="E32" t="n">
         <v>294.0164575385911</v>
       </c>
       <c r="F32" t="n">
-        <v>318.9621332080408</v>
+        <v>318.9621332080407</v>
       </c>
       <c r="G32" t="n">
-        <v>328.6513652200499</v>
+        <v>325.0256365363284</v>
       </c>
       <c r="H32" t="n">
         <v>227.3588859183475</v>
       </c>
       <c r="I32" t="n">
-        <v>119.3690670393007</v>
+        <v>31.45515450563001</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3074,13 +3074,13 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>1.422481774376166</v>
       </c>
       <c r="S32" t="n">
-        <v>67.25500035903829</v>
+        <v>155.168912892709</v>
       </c>
       <c r="T32" t="n">
-        <v>124.8370796118779</v>
+        <v>127.0403265212237</v>
       </c>
       <c r="U32" t="n">
         <v>163.2426852985549</v>
@@ -3092,7 +3092,7 @@
         <v>261.3270561837423</v>
       </c>
       <c r="X32" t="n">
-        <v>281.8171881447984</v>
+        <v>281.8171881447983</v>
       </c>
       <c r="Y32" t="n">
         <v>298.3240261223829</v>
@@ -3126,7 +3126,7 @@
         <v>100.0238351529859</v>
       </c>
       <c r="I33" t="n">
-        <v>45.86296740838224</v>
+        <v>45.86296740838225</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>21.65304841868479</v>
+        <v>21.6530484186848</v>
       </c>
       <c r="S33" t="n">
         <v>148.1971745240615</v>
@@ -3184,25 +3184,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>91.9180676482666</v>
+        <v>91.91806764826659</v>
       </c>
       <c r="C34" t="n">
-        <v>79.33290856495714</v>
+        <v>79.33290856495712</v>
       </c>
       <c r="D34" t="n">
-        <v>60.70156048454166</v>
+        <v>60.70156048454164</v>
       </c>
       <c r="E34" t="n">
-        <v>58.52005011289847</v>
+        <v>58.52005011289846</v>
       </c>
       <c r="F34" t="n">
-        <v>57.50713548926055</v>
+        <v>57.50713548926053</v>
       </c>
       <c r="G34" t="n">
-        <v>79.01702184396785</v>
+        <v>79.01702184396784</v>
       </c>
       <c r="H34" t="n">
-        <v>64.88849641702183</v>
+        <v>64.88849641702181</v>
       </c>
       <c r="I34" t="n">
         <v>35.65811878855766</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.7160017968005</v>
+        <v>41.71600179680048</v>
       </c>
       <c r="S34" t="n">
         <v>117.628992519371</v>
       </c>
       <c r="T34" t="n">
-        <v>135.5023937947426</v>
+        <v>135.5023937947425</v>
       </c>
       <c r="U34" t="n">
         <v>198.3472961875027</v>
@@ -3250,7 +3250,7 @@
         <v>198.6090858029203</v>
       </c>
       <c r="X34" t="n">
-        <v>137.7957428553665</v>
+        <v>137.7957428553664</v>
       </c>
       <c r="Y34" t="n">
         <v>130.6707408184241</v>
@@ -3263,28 +3263,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>294.81992912981</v>
+        <v>294.8199291298099</v>
       </c>
       <c r="C35" t="n">
-        <v>277.3589792373369</v>
+        <v>277.3589792373368</v>
       </c>
       <c r="D35" t="n">
         <v>266.7691290870123</v>
       </c>
       <c r="E35" t="n">
-        <v>294.0164575385912</v>
+        <v>294.0164575385911</v>
       </c>
       <c r="F35" t="n">
         <v>318.9621332080408</v>
       </c>
       <c r="G35" t="n">
-        <v>325.0256365363285</v>
+        <v>325.0256365363284</v>
       </c>
       <c r="H35" t="n">
-        <v>227.3588859183476</v>
+        <v>227.3588859183475</v>
       </c>
       <c r="I35" t="n">
-        <v>31.45515450563008</v>
+        <v>31.45515450563002</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>67.25500035903836</v>
+        <v>67.25500035903829</v>
       </c>
       <c r="T35" t="n">
         <v>124.8370796118779</v>
       </c>
       <c r="U35" t="n">
-        <v>163.242685298555</v>
+        <v>163.2426852985549</v>
       </c>
       <c r="V35" t="n">
-        <v>239.8383459364643</v>
+        <v>239.8383459364642</v>
       </c>
       <c r="W35" t="n">
-        <v>261.3270561837424</v>
+        <v>261.3270561837423</v>
       </c>
       <c r="X35" t="n">
         <v>281.8171881447984</v>
       </c>
       <c r="Y35" t="n">
-        <v>298.324026122383</v>
+        <v>298.3240261223829</v>
       </c>
     </row>
     <row r="36">
@@ -3363,7 +3363,7 @@
         <v>100.0238351529859</v>
       </c>
       <c r="I36" t="n">
-        <v>45.86296740838224</v>
+        <v>45.86296740838225</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>21.65304841868479</v>
+        <v>21.6530484186848</v>
       </c>
       <c r="S36" t="n">
         <v>148.1971745240615</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>91.91806764826667</v>
+        <v>91.9180676482666</v>
       </c>
       <c r="C37" t="n">
-        <v>79.33290856495721</v>
+        <v>79.33290856495714</v>
       </c>
       <c r="D37" t="n">
-        <v>60.70156048454173</v>
+        <v>60.70156048454166</v>
       </c>
       <c r="E37" t="n">
-        <v>58.52005011289855</v>
+        <v>58.52005011289756</v>
       </c>
       <c r="F37" t="n">
-        <v>57.50713548926062</v>
+        <v>57.50713548926055</v>
       </c>
       <c r="G37" t="n">
-        <v>79.01702184396791</v>
+        <v>79.01702184396785</v>
       </c>
       <c r="H37" t="n">
-        <v>64.88849641702188</v>
+        <v>64.88849641702183</v>
       </c>
       <c r="I37" t="n">
-        <v>35.65811878855773</v>
+        <v>35.65811878855767</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.71600179680058</v>
+        <v>41.7160017968005</v>
       </c>
       <c r="S37" t="n">
-        <v>117.6289925193711</v>
+        <v>117.628992519371</v>
       </c>
       <c r="T37" t="n">
-        <v>135.5023937947427</v>
+        <v>135.5023937947426</v>
       </c>
       <c r="U37" t="n">
-        <v>198.3472961875028</v>
+        <v>198.3472961875027</v>
       </c>
       <c r="V37" t="n">
-        <v>164.2237307901574</v>
+        <v>164.2237307901573</v>
       </c>
       <c r="W37" t="n">
-        <v>198.6090858029204</v>
+        <v>198.6090858029203</v>
       </c>
       <c r="X37" t="n">
         <v>137.7957428553665</v>
       </c>
       <c r="Y37" t="n">
-        <v>130.6707408184242</v>
+        <v>130.6707408184241</v>
       </c>
     </row>
     <row r="38">
@@ -3503,16 +3503,16 @@
         <v>294.8199291298099</v>
       </c>
       <c r="C38" t="n">
-        <v>277.3589792373368</v>
+        <v>277.3589792373369</v>
       </c>
       <c r="D38" t="n">
-        <v>266.7691290870122</v>
+        <v>266.7691290870123</v>
       </c>
       <c r="E38" t="n">
         <v>294.0164575385911</v>
       </c>
       <c r="F38" t="n">
-        <v>318.9621332080407</v>
+        <v>318.9621332080408</v>
       </c>
       <c r="G38" t="n">
         <v>325.0256365363284</v>
@@ -3521,7 +3521,7 @@
         <v>227.3588859183475</v>
       </c>
       <c r="I38" t="n">
-        <v>31.45515450562998</v>
+        <v>31.45515450563002</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,22 +3551,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>67.25500035903826</v>
+        <v>67.25500035903832</v>
       </c>
       <c r="T38" t="n">
-        <v>124.8370796118778</v>
+        <v>124.8370796118779</v>
       </c>
       <c r="U38" t="n">
         <v>163.2426852985549</v>
       </c>
       <c r="V38" t="n">
-        <v>239.8383459364645</v>
+        <v>239.8383459364642</v>
       </c>
       <c r="W38" t="n">
         <v>261.3270561837423</v>
       </c>
       <c r="X38" t="n">
-        <v>281.8171881447983</v>
+        <v>281.8171881447984</v>
       </c>
       <c r="Y38" t="n">
         <v>298.3240261223829</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>91.91806764826657</v>
+        <v>91.91806764826661</v>
       </c>
       <c r="C40" t="n">
-        <v>79.33290856495711</v>
+        <v>79.33290856495715</v>
       </c>
       <c r="D40" t="n">
-        <v>60.70156048454163</v>
+        <v>60.70156048454167</v>
       </c>
       <c r="E40" t="n">
-        <v>58.52005011289845</v>
+        <v>58.52005011289849</v>
       </c>
       <c r="F40" t="n">
-        <v>57.50713548926052</v>
+        <v>57.50713548926056</v>
       </c>
       <c r="G40" t="n">
-        <v>79.01702184396783</v>
+        <v>79.01702184396787</v>
       </c>
       <c r="H40" t="n">
-        <v>64.8884964170218</v>
+        <v>64.88849641702183</v>
       </c>
       <c r="I40" t="n">
-        <v>35.65811878855763</v>
+        <v>35.65811878855767</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.71600179680047</v>
+        <v>41.71600179680052</v>
       </c>
       <c r="S40" t="n">
         <v>117.628992519371</v>
       </c>
       <c r="T40" t="n">
-        <v>135.5023937947425</v>
+        <v>135.5023937947426</v>
       </c>
       <c r="U40" t="n">
-        <v>198.3472961875027</v>
+        <v>198.3472961875028</v>
       </c>
       <c r="V40" t="n">
         <v>164.2237307901573</v>
@@ -3724,7 +3724,7 @@
         <v>198.6090858029203</v>
       </c>
       <c r="X40" t="n">
-        <v>137.7957428553664</v>
+        <v>137.7957428553665</v>
       </c>
       <c r="Y40" t="n">
         <v>130.6707408184241</v>
@@ -3740,16 +3740,16 @@
         <v>294.8199291298099</v>
       </c>
       <c r="C41" t="n">
-        <v>277.3589792373368</v>
+        <v>277.3589792373369</v>
       </c>
       <c r="D41" t="n">
-        <v>266.7691290870122</v>
+        <v>266.7691290870123</v>
       </c>
       <c r="E41" t="n">
         <v>294.0164575385911</v>
       </c>
       <c r="F41" t="n">
-        <v>318.9621332080407</v>
+        <v>318.9621332080408</v>
       </c>
       <c r="G41" t="n">
         <v>325.0256365363284</v>
@@ -3758,7 +3758,7 @@
         <v>227.3588859183475</v>
       </c>
       <c r="I41" t="n">
-        <v>31.45515450562999</v>
+        <v>31.45515450563002</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>67.25500035903828</v>
+        <v>67.25500035903831</v>
       </c>
       <c r="T41" t="n">
         <v>124.8370796118779</v>
@@ -3803,7 +3803,7 @@
         <v>261.3270561837423</v>
       </c>
       <c r="X41" t="n">
-        <v>281.8171881447983</v>
+        <v>281.8171881447984</v>
       </c>
       <c r="Y41" t="n">
         <v>298.3240261223829</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>91.91806764826659</v>
+        <v>91.91806764826661</v>
       </c>
       <c r="C43" t="n">
-        <v>79.33290856495712</v>
+        <v>79.33290856495715</v>
       </c>
       <c r="D43" t="n">
-        <v>60.70156048454164</v>
+        <v>60.70156048454167</v>
       </c>
       <c r="E43" t="n">
-        <v>58.52005011289846</v>
+        <v>58.52005011289849</v>
       </c>
       <c r="F43" t="n">
-        <v>57.50713548926053</v>
+        <v>57.50713548926056</v>
       </c>
       <c r="G43" t="n">
-        <v>79.01702184396784</v>
+        <v>79.01702184396787</v>
       </c>
       <c r="H43" t="n">
-        <v>64.88849641702181</v>
+        <v>64.88849641702184</v>
       </c>
       <c r="I43" t="n">
-        <v>35.65811878855764</v>
+        <v>35.65811878855767</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.71600179680048</v>
+        <v>41.71600179680051</v>
       </c>
       <c r="S43" t="n">
         <v>117.628992519371</v>
       </c>
       <c r="T43" t="n">
-        <v>135.5023937947425</v>
+        <v>135.5023937947426</v>
       </c>
       <c r="U43" t="n">
-        <v>198.3472961875027</v>
+        <v>198.3472961875028</v>
       </c>
       <c r="V43" t="n">
         <v>164.2237307901573</v>
@@ -3961,7 +3961,7 @@
         <v>198.6090858029203</v>
       </c>
       <c r="X43" t="n">
-        <v>137.7957428553664</v>
+        <v>137.7957428553665</v>
       </c>
       <c r="Y43" t="n">
         <v>130.6707408184241</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>67.25500035903829</v>
+        <v>67.25500035903828</v>
       </c>
       <c r="T44" t="n">
-        <v>124.8370796118778</v>
+        <v>124.8370796118779</v>
       </c>
       <c r="U44" t="n">
         <v>163.2426852985549</v>
@@ -4147,10 +4147,10 @@
         <v>57.50713548926053</v>
       </c>
       <c r="G46" t="n">
-        <v>79.01702184396783</v>
+        <v>79.01702184396784</v>
       </c>
       <c r="H46" t="n">
-        <v>64.8884964170218</v>
+        <v>64.88849641702181</v>
       </c>
       <c r="I46" t="n">
         <v>35.65811878855764</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.71600179680049</v>
+        <v>41.71600179680048</v>
       </c>
       <c r="S46" t="n">
         <v>117.628992519371</v>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>710.516763498309</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="C2" t="n">
-        <v>710.516763498309</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="D2" t="n">
-        <v>506.1786963984129</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="E2" t="n">
-        <v>506.1786963984129</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="F2" t="n">
-        <v>262.7299197543128</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J2" t="n">
         <v>19.28114311021272</v>
@@ -4364,16 +4364,16 @@
         <v>953.9655401424092</v>
       </c>
       <c r="V2" t="n">
-        <v>953.9655401424092</v>
+        <v>710.516763498309</v>
       </c>
       <c r="W2" t="n">
-        <v>953.9655401424092</v>
+        <v>467.067986854209</v>
       </c>
       <c r="X2" t="n">
-        <v>953.9655401424092</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="Y2" t="n">
-        <v>953.9655401424092</v>
+        <v>53.75394372784808</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>256.869462878957</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C3" t="n">
-        <v>256.869462878957</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D3" t="n">
-        <v>256.869462878957</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E3" t="n">
-        <v>256.869462878957</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F3" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G3" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H3" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I3" t="n">
         <v>20.03527576299844</v>
@@ -4410,49 +4410,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>19.28114311021272</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M3" t="n">
-        <v>257.8852890990952</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N3" t="n">
-        <v>496.4894350879777</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O3" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T3" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U3" t="n">
-        <v>964.0571555106362</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V3" t="n">
-        <v>728.9050472788936</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="W3" t="n">
-        <v>728.9050472788936</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="X3" t="n">
-        <v>632.8450986639789</v>
+        <v>51.20856840381305</v>
       </c>
       <c r="Y3" t="n">
-        <v>425.084799899025</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C4" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D4" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E4" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4504,34 +4504,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="5">
@@ -4550,10 +4550,10 @@
         <v>72.23626279480629</v>
       </c>
       <c r="E5" t="n">
-        <v>72.23626279480629</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="F5" t="n">
-        <v>65.29076204560282</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G5" t="n">
         <v>31.35113235729608</v>
@@ -4598,16 +4598,16 @@
         <v>802.5825927271064</v>
       </c>
       <c r="U5" t="n">
-        <v>559.1338160830064</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V5" t="n">
-        <v>559.1338160830064</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W5" t="n">
-        <v>559.1338160830064</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X5" t="n">
-        <v>559.1338160830064</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y5" t="n">
         <v>559.1338160830064</v>
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>852.8634924192114</v>
+        <v>194.4883050441255</v>
       </c>
       <c r="C6" t="n">
-        <v>678.4104631380844</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D6" t="n">
-        <v>529.4760534768332</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E6" t="n">
-        <v>370.2385984713777</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F6" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G6" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H6" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I6" t="n">
         <v>20.03527576299844</v>
@@ -4647,49 +4647,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N6" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O6" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W6" t="n">
-        <v>964.0571555106362</v>
+        <v>778.3154410346802</v>
       </c>
       <c r="X6" t="n">
-        <v>964.0571555106362</v>
+        <v>570.4639408291474</v>
       </c>
       <c r="Y6" t="n">
-        <v>964.0571555106362</v>
+        <v>362.7036420641935</v>
       </c>
     </row>
     <row r="7">
@@ -4699,16 +4699,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F7" t="n">
         <v>19.28114311021272</v>
@@ -4750,25 +4750,25 @@
         <v>151.0645035650224</v>
       </c>
       <c r="S7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>559.1338160830064</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="C8" t="n">
-        <v>559.1338160830064</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="D8" t="n">
-        <v>559.1338160830064</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="E8" t="n">
-        <v>518.2486856454962</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="F8" t="n">
-        <v>274.7999090013961</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G8" t="n">
         <v>31.35113235729608</v>
@@ -4829,25 +4829,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>802.5825927271064</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T8" t="n">
-        <v>802.5825927271064</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U8" t="n">
-        <v>802.5825927271064</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="V8" t="n">
-        <v>802.5825927271064</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="W8" t="n">
-        <v>802.5825927271064</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="X8" t="n">
-        <v>802.5825927271064</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="Y8" t="n">
-        <v>559.1338160830064</v>
+        <v>53.75394372784808</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C9" t="n">
-        <v>19.28114311021272</v>
+        <v>816.3871559026832</v>
       </c>
       <c r="D9" t="n">
-        <v>19.28114311021272</v>
+        <v>667.4527462414319</v>
       </c>
       <c r="E9" t="n">
-        <v>19.28114311021272</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="F9" t="n">
-        <v>19.28114311021272</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G9" t="n">
-        <v>19.28114311021272</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H9" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I9" t="n">
         <v>19.28114311021272</v>
@@ -4893,10 +4893,10 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N9" t="n">
-        <v>781.4136778972854</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O9" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P9" t="n">
         <v>964.0571555106362</v>
@@ -4917,16 +4917,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V9" t="n">
-        <v>846.5570557448675</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W9" t="n">
-        <v>603.1082791007675</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X9" t="n">
-        <v>395.2567788952347</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y9" t="n">
-        <v>187.4964801302808</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4978,34 +4978,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2011.399931006879</v>
+        <v>2011.39993100688</v>
       </c>
       <c r="C11" t="n">
         <v>1663.063449850584</v>
       </c>
       <c r="D11" t="n">
-        <v>1325.423787027949</v>
+        <v>1325.42378702795</v>
       </c>
       <c r="E11" t="n">
-        <v>960.2615702138211</v>
+        <v>960.2615702138218</v>
       </c>
       <c r="F11" t="n">
-        <v>569.9017012083297</v>
+        <v>569.9017012083302</v>
       </c>
       <c r="G11" t="n">
-        <v>173.4170813661845</v>
+        <v>173.4170813661846</v>
       </c>
       <c r="H11" t="n">
-        <v>173.4170813661845</v>
+        <v>173.4170813661846</v>
       </c>
       <c r="I11" t="n">
         <v>73.46830195908778</v>
       </c>
       <c r="J11" t="n">
-        <v>260.2054441404282</v>
+        <v>260.2054441404284</v>
       </c>
       <c r="K11" t="n">
-        <v>660.8208179075381</v>
+        <v>660.8208179075382</v>
       </c>
       <c r="L11" t="n">
         <v>1210.096241442436</v>
@@ -5051,10 +5051,10 @@
         <v>1837.877529641655</v>
       </c>
       <c r="N11" t="n">
-        <v>2461.184977863254</v>
+        <v>2461.184977863255</v>
       </c>
       <c r="O11" t="n">
-        <v>3004.568888469954</v>
+        <v>3004.568888469955</v>
       </c>
       <c r="P11" t="n">
         <v>3430.660101634156</v>
@@ -5066,25 +5066,25 @@
         <v>3673.415097954389</v>
       </c>
       <c r="S11" t="n">
-        <v>3537.304858089304</v>
+        <v>3673.415097954389</v>
       </c>
       <c r="T11" t="n">
-        <v>3537.304858089304</v>
+        <v>3479.141141672294</v>
       </c>
       <c r="U11" t="n">
-        <v>3431.869373441542</v>
+        <v>3246.073644292546</v>
       </c>
       <c r="V11" t="n">
-        <v>3431.869373441542</v>
+        <v>3065.895569161537</v>
       </c>
       <c r="W11" t="n">
-        <v>3099.726753955544</v>
+        <v>2733.752949675539</v>
       </c>
       <c r="X11" t="n">
-        <v>2746.88703147858</v>
+        <v>2380.913227198575</v>
       </c>
       <c r="Y11" t="n">
-        <v>2377.373735286885</v>
+        <v>2011.39993100688</v>
       </c>
     </row>
     <row r="12">
@@ -5118,22 +5118,22 @@
         <v>73.46830195908778</v>
       </c>
       <c r="J12" t="n">
-        <v>73.46830195908778</v>
+        <v>108.1955029909766</v>
       </c>
       <c r="K12" t="n">
-        <v>139.1391845095015</v>
+        <v>173.8663855413903</v>
       </c>
       <c r="L12" t="n">
-        <v>640.8962733943815</v>
+        <v>675.6234744262704</v>
       </c>
       <c r="M12" t="n">
-        <v>1278.402351410398</v>
+        <v>1313.129552442286</v>
       </c>
       <c r="N12" t="n">
-        <v>1948.488331740416</v>
+        <v>1983.215532772305</v>
       </c>
       <c r="O12" t="n">
-        <v>2495.070413569004</v>
+        <v>2529.797614600894</v>
       </c>
       <c r="P12" t="n">
         <v>2636.196714164933</v>
@@ -5173,16 +5173,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>73.46830195908778</v>
+        <v>441.6397503746496</v>
       </c>
       <c r="C13" t="n">
-        <v>73.46830195908778</v>
+        <v>293.3296032308588</v>
       </c>
       <c r="D13" t="n">
-        <v>73.46830195908778</v>
+        <v>293.3296032308588</v>
       </c>
       <c r="E13" t="n">
-        <v>73.46830195908778</v>
+        <v>166.0425454325817</v>
       </c>
       <c r="F13" t="n">
         <v>73.46830195908778</v>
@@ -5197,19 +5197,19 @@
         <v>73.46830195908778</v>
       </c>
       <c r="J13" t="n">
-        <v>75.45401965814366</v>
+        <v>75.45401965814355</v>
       </c>
       <c r="K13" t="n">
-        <v>195.5491741164736</v>
+        <v>195.5491741164735</v>
       </c>
       <c r="L13" t="n">
-        <v>399.1026573432039</v>
+        <v>399.1026573432036</v>
       </c>
       <c r="M13" t="n">
-        <v>623.0114736459859</v>
+        <v>623.0114736459856</v>
       </c>
       <c r="N13" t="n">
-        <v>847.5115364327555</v>
+        <v>847.5115364327552</v>
       </c>
       <c r="O13" t="n">
         <v>1040.400604995802</v>
@@ -5221,28 +5221,28 @@
         <v>1207.639325881399</v>
       </c>
       <c r="R13" t="n">
-        <v>1207.639325881399</v>
+        <v>1097.326054260998</v>
       </c>
       <c r="S13" t="n">
-        <v>1207.639325881399</v>
+        <v>910.3329940319409</v>
       </c>
       <c r="T13" t="n">
-        <v>1207.639325881399</v>
+        <v>910.3329940319409</v>
       </c>
       <c r="U13" t="n">
-        <v>939.1126255835218</v>
+        <v>641.8062937340636</v>
       </c>
       <c r="V13" t="n">
-        <v>705.054173161751</v>
+        <v>641.8062937340636</v>
       </c>
       <c r="W13" t="n">
-        <v>436.2630389089065</v>
+        <v>641.8062937340636</v>
       </c>
       <c r="X13" t="n">
-        <v>273.6348453185018</v>
+        <v>641.8062937340636</v>
       </c>
       <c r="Y13" t="n">
-        <v>73.46830195908778</v>
+        <v>441.6397503746496</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1942.508803960271</v>
+        <v>2064.039452396305</v>
       </c>
       <c r="C14" t="n">
-        <v>1594.172322803975</v>
+        <v>1715.702971240009</v>
       </c>
       <c r="D14" t="n">
-        <v>1594.172322803975</v>
+        <v>1378.063308417375</v>
       </c>
       <c r="E14" t="n">
-        <v>1229.010105989847</v>
+        <v>1012.901091603247</v>
       </c>
       <c r="F14" t="n">
-        <v>838.6502369843553</v>
+        <v>867.7330375979709</v>
       </c>
       <c r="G14" t="n">
-        <v>442.1656171422092</v>
+        <v>471.2484177558252</v>
       </c>
       <c r="H14" t="n">
-        <v>144.3342807525694</v>
+        <v>173.4170813661846</v>
       </c>
       <c r="I14" t="n">
         <v>73.46830195908778</v>
@@ -5279,7 +5279,7 @@
         <v>260.2054441404284</v>
       </c>
       <c r="K14" t="n">
-        <v>660.8208179075381</v>
+        <v>660.8208179075382</v>
       </c>
       <c r="L14" t="n">
         <v>1210.096241442436</v>
@@ -5291,7 +5291,7 @@
         <v>2461.184977863255</v>
       </c>
       <c r="O14" t="n">
-        <v>3004.568888469954</v>
+        <v>3004.568888469955</v>
       </c>
       <c r="P14" t="n">
         <v>3430.660101634156</v>
@@ -5303,25 +5303,25 @@
         <v>3673.415097954389</v>
       </c>
       <c r="S14" t="n">
-        <v>3673.415097954389</v>
+        <v>3537.304858089304</v>
       </c>
       <c r="T14" t="n">
-        <v>3673.415097954389</v>
+        <v>3343.030901807209</v>
       </c>
       <c r="U14" t="n">
-        <v>3673.415097954389</v>
+        <v>3109.963404427461</v>
       </c>
       <c r="V14" t="n">
-        <v>3362.978246394934</v>
+        <v>2799.526552868007</v>
       </c>
       <c r="W14" t="n">
-        <v>3030.835626908936</v>
+        <v>2799.526552868007</v>
       </c>
       <c r="X14" t="n">
-        <v>2677.995904431972</v>
+        <v>2799.526552868007</v>
       </c>
       <c r="Y14" t="n">
-        <v>2308.482608240276</v>
+        <v>2430.013256676311</v>
       </c>
     </row>
     <row r="15">
@@ -5355,7 +5355,7 @@
         <v>73.46830195908778</v>
       </c>
       <c r="J15" t="n">
-        <v>190.9942848817978</v>
+        <v>190.9942848817979</v>
       </c>
       <c r="K15" t="n">
         <v>518.4857520746643</v>
@@ -5410,52 +5410,52 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>394.3099242269682</v>
+        <v>709.0142201178702</v>
       </c>
       <c r="C16" t="n">
-        <v>394.3099242269682</v>
+        <v>560.7040729740793</v>
       </c>
       <c r="D16" t="n">
-        <v>264.8193205987484</v>
+        <v>431.2134693458596</v>
       </c>
       <c r="E16" t="n">
-        <v>137.5322628004714</v>
+        <v>303.9264115475826</v>
       </c>
       <c r="F16" t="n">
-        <v>137.5322628004714</v>
+        <v>177.6624998337882</v>
       </c>
       <c r="G16" t="n">
-        <v>137.5322628004714</v>
+        <v>177.6624998337882</v>
       </c>
       <c r="H16" t="n">
-        <v>73.46830195908778</v>
+        <v>177.6624998337882</v>
       </c>
       <c r="I16" t="n">
         <v>73.46830195908778</v>
       </c>
       <c r="J16" t="n">
-        <v>75.45401965814355</v>
+        <v>75.45401965814359</v>
       </c>
       <c r="K16" t="n">
-        <v>195.5491741164734</v>
+        <v>195.5491741164735</v>
       </c>
       <c r="L16" t="n">
-        <v>399.1026573432035</v>
+        <v>399.1026573432038</v>
       </c>
       <c r="M16" t="n">
-        <v>623.0114736459855</v>
+        <v>623.0114736459856</v>
       </c>
       <c r="N16" t="n">
-        <v>847.511536432755</v>
+        <v>847.5115364327552</v>
       </c>
       <c r="O16" t="n">
         <v>1040.400604995802</v>
       </c>
       <c r="P16" t="n">
-        <v>1184.847502163548</v>
+        <v>1184.847502163549</v>
       </c>
       <c r="Q16" t="n">
-        <v>1207.639325881398</v>
+        <v>1207.639325881399</v>
       </c>
       <c r="R16" t="n">
         <v>1097.326054260998</v>
@@ -5470,16 +5470,16 @@
         <v>1097.326054260998</v>
       </c>
       <c r="V16" t="n">
-        <v>863.2676018392269</v>
+        <v>1097.326054260998</v>
       </c>
       <c r="W16" t="n">
-        <v>594.4764675863823</v>
+        <v>1097.326054260998</v>
       </c>
       <c r="X16" t="n">
-        <v>594.4764675863823</v>
+        <v>889.962539147097</v>
       </c>
       <c r="Y16" t="n">
-        <v>394.3099242269682</v>
+        <v>709.0142201178702</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1875.149994147038</v>
+        <v>1875.149994147036</v>
       </c>
       <c r="C17" t="n">
-        <v>1588.825123454954</v>
+        <v>1588.825123454952</v>
       </c>
       <c r="D17" t="n">
-        <v>1313.197071096531</v>
+        <v>1313.197071096529</v>
       </c>
       <c r="E17" t="n">
-        <v>1010.046464746615</v>
+        <v>1010.046464746613</v>
       </c>
       <c r="F17" t="n">
-        <v>681.6982062053352</v>
+        <v>681.6982062053332</v>
       </c>
       <c r="G17" t="n">
-        <v>347.2251968274013</v>
+        <v>347.2251968274004</v>
       </c>
       <c r="H17" t="n">
         <v>111.4054709019728</v>
@@ -5546,19 +5546,19 @@
         <v>3467.054122735633</v>
       </c>
       <c r="U17" t="n">
-        <v>3295.998235820097</v>
+        <v>3295.998235820096</v>
       </c>
       <c r="V17" t="n">
-        <v>3047.572994724854</v>
+        <v>3047.572994724853</v>
       </c>
       <c r="W17" t="n">
-        <v>2777.441985703068</v>
+        <v>2777.441985703067</v>
       </c>
       <c r="X17" t="n">
-        <v>2486.613873690316</v>
+        <v>2486.613873690314</v>
       </c>
       <c r="Y17" t="n">
-        <v>2179.112187962832</v>
+        <v>2179.11218796283</v>
       </c>
     </row>
     <row r="18">
@@ -5592,25 +5592,25 @@
         <v>73.46830195908778</v>
       </c>
       <c r="J18" t="n">
-        <v>174.0919717329579</v>
+        <v>73.46830195908778</v>
       </c>
       <c r="K18" t="n">
-        <v>501.5834389258243</v>
+        <v>400.9597691519543</v>
       </c>
       <c r="L18" t="n">
-        <v>1003.340527810704</v>
+        <v>535.5849161864097</v>
       </c>
       <c r="M18" t="n">
-        <v>1179.79859271422</v>
+        <v>1173.090994202426</v>
       </c>
       <c r="N18" t="n">
-        <v>1849.884573044239</v>
+        <v>1843.176974532444</v>
       </c>
       <c r="O18" t="n">
-        <v>2006.542958788865</v>
+        <v>2389.759056361033</v>
       </c>
       <c r="P18" t="n">
-        <v>2428.220199306442</v>
+        <v>2636.196714164933</v>
       </c>
       <c r="Q18" t="n">
         <v>2657.402498082636</v>
@@ -5647,49 +5647,49 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>428.1627242690078</v>
+        <v>547.8372810296573</v>
       </c>
       <c r="C19" t="n">
-        <v>428.1627242690078</v>
+        <v>461.5387443500782</v>
       </c>
       <c r="D19" t="n">
-        <v>360.6837311049999</v>
+        <v>394.0597511860703</v>
       </c>
       <c r="E19" t="n">
-        <v>295.4082837709346</v>
+        <v>337.5908711814238</v>
       </c>
       <c r="F19" t="n">
-        <v>231.1559825213521</v>
+        <v>273.3385699318412</v>
       </c>
       <c r="G19" t="n">
-        <v>145.1765233377221</v>
+        <v>187.3591107482108</v>
       </c>
       <c r="H19" t="n">
-        <v>73.46830195908778</v>
+        <v>115.6508893695765</v>
       </c>
       <c r="I19" t="n">
         <v>73.46830195908778</v>
       </c>
       <c r="J19" t="n">
-        <v>136.2315990741176</v>
+        <v>136.2315990741174</v>
       </c>
       <c r="K19" t="n">
-        <v>317.1043329484214</v>
+        <v>317.1043329484212</v>
       </c>
       <c r="L19" t="n">
-        <v>581.4353955911254</v>
+        <v>581.4353955911253</v>
       </c>
       <c r="M19" t="n">
-        <v>866.1217913098815</v>
+        <v>866.121791309881</v>
       </c>
       <c r="N19" t="n">
-        <v>1151.399433512625</v>
+        <v>1151.399433512624</v>
       </c>
       <c r="O19" t="n">
         <v>1405.066081491645</v>
       </c>
       <c r="P19" t="n">
-        <v>1610.290558075366</v>
+        <v>1610.290558075365</v>
       </c>
       <c r="Q19" t="n">
         <v>1693.85996120919</v>
@@ -5698,25 +5698,25 @@
         <v>1645.558300053001</v>
       </c>
       <c r="S19" t="n">
-        <v>1520.576850288156</v>
+        <v>1520.576850288155</v>
       </c>
       <c r="T19" t="n">
-        <v>1396.021835975669</v>
+        <v>1377.541459841116</v>
       </c>
       <c r="U19" t="n">
-        <v>1189.506746142004</v>
+        <v>1171.02637000745</v>
       </c>
       <c r="V19" t="n">
-        <v>1017.459904184444</v>
+        <v>998.9795280498913</v>
       </c>
       <c r="W19" t="n">
-        <v>810.6803803958117</v>
+        <v>792.2000042612584</v>
       </c>
       <c r="X19" t="n">
-        <v>665.3284757461221</v>
+        <v>646.8480996115693</v>
       </c>
       <c r="Y19" t="n">
-        <v>527.1735428509198</v>
+        <v>646.8480996115693</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1875.149994147037</v>
+        <v>1875.149994147038</v>
       </c>
       <c r="C20" t="n">
-        <v>1588.825123454953</v>
+        <v>1588.825123454954</v>
       </c>
       <c r="D20" t="n">
         <v>1313.197071096531</v>
       </c>
       <c r="E20" t="n">
-        <v>1010.046464746614</v>
+        <v>1010.046464746615</v>
       </c>
       <c r="F20" t="n">
-        <v>681.6982062053346</v>
+        <v>681.6982062053351</v>
       </c>
       <c r="G20" t="n">
-        <v>347.2251968274007</v>
+        <v>347.2251968274009</v>
       </c>
       <c r="H20" t="n">
         <v>111.4054709019728</v>
@@ -5774,10 +5774,10 @@
         <v>3673.415097954389</v>
       </c>
       <c r="R20" t="n">
-        <v>3673.415097954388</v>
+        <v>3673.415097954389</v>
       </c>
       <c r="S20" t="n">
-        <v>3599.316468553515</v>
+        <v>3599.316468553516</v>
       </c>
       <c r="T20" t="n">
         <v>3467.054122735633</v>
@@ -5786,16 +5786,16 @@
         <v>3295.998235820096</v>
       </c>
       <c r="V20" t="n">
-        <v>3047.572994724853</v>
+        <v>3047.572994724854</v>
       </c>
       <c r="W20" t="n">
-        <v>2777.441985703067</v>
+        <v>2777.441985703068</v>
       </c>
       <c r="X20" t="n">
         <v>2486.613873690315</v>
       </c>
       <c r="Y20" t="n">
-        <v>2179.112187962831</v>
+        <v>2179.112187962832</v>
       </c>
     </row>
     <row r="21">
@@ -5838,7 +5838,7 @@
         <v>1020.242840959544</v>
       </c>
       <c r="M21" t="n">
-        <v>1264.423847230376</v>
+        <v>1196.70090586306</v>
       </c>
       <c r="N21" t="n">
         <v>1459.960876960276</v>
@@ -5884,46 +5884,46 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>514.4612609485873</v>
+        <v>556.6438483590757</v>
       </c>
       <c r="C22" t="n">
-        <v>428.1627242690083</v>
+        <v>470.3453116794967</v>
       </c>
       <c r="D22" t="n">
-        <v>360.6837311050004</v>
+        <v>402.8663185154888</v>
       </c>
       <c r="E22" t="n">
-        <v>295.4082837709351</v>
+        <v>337.5908711814235</v>
       </c>
       <c r="F22" t="n">
-        <v>231.1559825213525</v>
+        <v>273.338569931841</v>
       </c>
       <c r="G22" t="n">
-        <v>145.1765233377221</v>
+        <v>187.3591107482107</v>
       </c>
       <c r="H22" t="n">
-        <v>73.46830195908778</v>
+        <v>115.6508893695765</v>
       </c>
       <c r="I22" t="n">
         <v>73.46830195908778</v>
       </c>
       <c r="J22" t="n">
-        <v>136.2315990741173</v>
+        <v>136.2315990741176</v>
       </c>
       <c r="K22" t="n">
-        <v>317.1043329484212</v>
+        <v>317.1043329484214</v>
       </c>
       <c r="L22" t="n">
-        <v>581.4353955911251</v>
+        <v>581.4353955911255</v>
       </c>
       <c r="M22" t="n">
-        <v>866.121791309881</v>
+        <v>866.1217913098817</v>
       </c>
       <c r="N22" t="n">
-        <v>1151.399433512624</v>
+        <v>1151.399433512625</v>
       </c>
       <c r="O22" t="n">
-        <v>1405.066081491645</v>
+        <v>1405.066081491646</v>
       </c>
       <c r="P22" t="n">
         <v>1610.290558075366</v>
@@ -5932,28 +5932,28 @@
         <v>1693.85996120919</v>
       </c>
       <c r="R22" t="n">
-        <v>1645.558300053002</v>
+        <v>1647.167895627932</v>
       </c>
       <c r="S22" t="n">
-        <v>1520.576850288156</v>
+        <v>1522.186445863086</v>
       </c>
       <c r="T22" t="n">
-        <v>1377.541459841117</v>
+        <v>1379.151055416047</v>
       </c>
       <c r="U22" t="n">
-        <v>1171.026370007452</v>
+        <v>1172.635965582382</v>
       </c>
       <c r="V22" t="n">
-        <v>998.9795280498925</v>
+        <v>1000.589123624823</v>
       </c>
       <c r="W22" t="n">
-        <v>792.2000042612597</v>
+        <v>793.8095998361898</v>
       </c>
       <c r="X22" t="n">
-        <v>646.8480996115702</v>
+        <v>793.8095998361898</v>
       </c>
       <c r="Y22" t="n">
-        <v>613.4720795304992</v>
+        <v>655.6546669409876</v>
       </c>
     </row>
     <row r="23">
@@ -5987,7 +5987,7 @@
         <v>73.46830195908778</v>
       </c>
       <c r="J23" t="n">
-        <v>260.2054441404282</v>
+        <v>260.2054441404284</v>
       </c>
       <c r="K23" t="n">
         <v>660.8208179075381</v>
@@ -5999,10 +5999,10 @@
         <v>1837.877529641655</v>
       </c>
       <c r="N23" t="n">
-        <v>2461.184977863254</v>
+        <v>2461.184977863255</v>
       </c>
       <c r="O23" t="n">
-        <v>3004.568888469954</v>
+        <v>3004.568888469955</v>
       </c>
       <c r="P23" t="n">
         <v>3430.660101634156</v>
@@ -6011,10 +6011,10 @@
         <v>3673.415097954389</v>
       </c>
       <c r="R23" t="n">
-        <v>3673.415097954389</v>
+        <v>3673.415097954388</v>
       </c>
       <c r="S23" t="n">
-        <v>3599.316468553516</v>
+        <v>3599.316468553515</v>
       </c>
       <c r="T23" t="n">
         <v>3467.054122735633</v>
@@ -6075,7 +6075,7 @@
         <v>1020.242840959544</v>
       </c>
       <c r="M24" t="n">
-        <v>1196.70090586306</v>
+        <v>1264.423847230376</v>
       </c>
       <c r="N24" t="n">
         <v>1459.960876960276</v>
@@ -6121,31 +6121,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>423.8894078610019</v>
+        <v>409.6823481344555</v>
       </c>
       <c r="C25" t="n">
-        <v>337.5908711814228</v>
+        <v>409.6823481344555</v>
       </c>
       <c r="D25" t="n">
-        <v>337.5908711814228</v>
+        <v>342.2033549704476</v>
       </c>
       <c r="E25" t="n">
-        <v>337.5908711814228</v>
+        <v>276.9279076363823</v>
       </c>
       <c r="F25" t="n">
-        <v>273.3385699318403</v>
+        <v>273.3385699318411</v>
       </c>
       <c r="G25" t="n">
-        <v>187.35911074821</v>
+        <v>187.3591107482108</v>
       </c>
       <c r="H25" t="n">
-        <v>115.6508893695759</v>
+        <v>115.6508893695765</v>
       </c>
       <c r="I25" t="n">
         <v>73.46830195908778</v>
       </c>
       <c r="J25" t="n">
-        <v>136.2315990741175</v>
+        <v>136.2315990741176</v>
       </c>
       <c r="K25" t="n">
         <v>317.1043329484214</v>
@@ -6154,7 +6154,7 @@
         <v>581.4353955911255</v>
       </c>
       <c r="M25" t="n">
-        <v>866.1217913098814</v>
+        <v>866.1217913098812</v>
       </c>
       <c r="N25" t="n">
         <v>1151.399433512625</v>
@@ -6169,28 +6169,28 @@
         <v>1693.85996120919</v>
       </c>
       <c r="R25" t="n">
-        <v>1659.765359779548</v>
+        <v>1645.558300053002</v>
       </c>
       <c r="S25" t="n">
-        <v>1534.783910014702</v>
+        <v>1520.576850288156</v>
       </c>
       <c r="T25" t="n">
-        <v>1391.748519567663</v>
+        <v>1377.541459841117</v>
       </c>
       <c r="U25" t="n">
-        <v>1185.233429733998</v>
+        <v>1171.026370007451</v>
       </c>
       <c r="V25" t="n">
-        <v>1013.186587776439</v>
+        <v>998.9795280498922</v>
       </c>
       <c r="W25" t="n">
-        <v>806.4070639878059</v>
+        <v>792.2000042612594</v>
       </c>
       <c r="X25" t="n">
-        <v>661.0551593381165</v>
+        <v>646.84809961157</v>
       </c>
       <c r="Y25" t="n">
-        <v>522.9002264429138</v>
+        <v>508.6931667163674</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6200,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1875.149994147037</v>
+        <v>1875.149994147038</v>
       </c>
       <c r="C26" t="n">
-        <v>1588.825123454953</v>
+        <v>1588.825123454954</v>
       </c>
       <c r="D26" t="n">
         <v>1313.197071096531</v>
       </c>
       <c r="E26" t="n">
-        <v>1010.046464746614</v>
+        <v>1010.046464746615</v>
       </c>
       <c r="F26" t="n">
-        <v>681.6982062053345</v>
+        <v>681.6982062053348</v>
       </c>
       <c r="G26" t="n">
-        <v>347.2251968274004</v>
+        <v>347.2251968274009</v>
       </c>
       <c r="H26" t="n">
-        <v>111.4054709019729</v>
+        <v>111.4054709019728</v>
       </c>
       <c r="I26" t="n">
         <v>73.46830195908778</v>
@@ -6254,7 +6254,7 @@
         <v>3599.316468553516</v>
       </c>
       <c r="T26" t="n">
-        <v>3467.054122735633</v>
+        <v>3467.054122735634</v>
       </c>
       <c r="U26" t="n">
         <v>3295.998235820097</v>
@@ -6266,10 +6266,10 @@
         <v>2777.441985703068</v>
       </c>
       <c r="X26" t="n">
-        <v>2486.613873690315</v>
+        <v>2486.613873690316</v>
       </c>
       <c r="Y26" t="n">
-        <v>2179.112187962831</v>
+        <v>2179.112187962832</v>
       </c>
     </row>
     <row r="27">
@@ -6303,25 +6303,25 @@
         <v>73.46830195908778</v>
       </c>
       <c r="J27" t="n">
-        <v>190.9942848817978</v>
+        <v>73.46830195908778</v>
       </c>
       <c r="K27" t="n">
-        <v>518.4857520746643</v>
+        <v>139.1391845095015</v>
       </c>
       <c r="L27" t="n">
-        <v>1020.242840959544</v>
+        <v>640.8962733943815</v>
       </c>
       <c r="M27" t="n">
-        <v>1264.423847230376</v>
+        <v>1278.402351410398</v>
       </c>
       <c r="N27" t="n">
-        <v>1459.960876960276</v>
+        <v>1948.488331740416</v>
       </c>
       <c r="O27" t="n">
-        <v>2006.542958788865</v>
+        <v>2495.070413569004</v>
       </c>
       <c r="P27" t="n">
-        <v>2428.220199306442</v>
+        <v>2601.469513133044</v>
       </c>
       <c r="Q27" t="n">
         <v>2657.402498082636</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>409.6823481344534</v>
+        <v>552.7177385814948</v>
       </c>
       <c r="C28" t="n">
-        <v>406.093010429915</v>
+        <v>470.345311679497</v>
       </c>
       <c r="D28" t="n">
-        <v>338.614017265907</v>
+        <v>402.8663185154891</v>
       </c>
       <c r="E28" t="n">
-        <v>273.3385699318414</v>
+        <v>337.5908711814237</v>
       </c>
       <c r="F28" t="n">
-        <v>273.3385699318414</v>
+        <v>273.3385699318412</v>
       </c>
       <c r="G28" t="n">
-        <v>187.359110748211</v>
+        <v>187.3591107482109</v>
       </c>
       <c r="H28" t="n">
-        <v>115.6508893695766</v>
+        <v>115.6508893695765</v>
       </c>
       <c r="I28" t="n">
         <v>73.46830195908778</v>
       </c>
       <c r="J28" t="n">
-        <v>136.2315990741174</v>
+        <v>136.2315990741175</v>
       </c>
       <c r="K28" t="n">
-        <v>317.1043329484211</v>
+        <v>317.1043329484212</v>
       </c>
       <c r="L28" t="n">
-        <v>581.4353955911253</v>
+        <v>581.4353955911254</v>
       </c>
       <c r="M28" t="n">
-        <v>866.121791309881</v>
+        <v>866.1217913098812</v>
       </c>
       <c r="N28" t="n">
-        <v>1151.399433512624</v>
+        <v>1151.399433512625</v>
       </c>
       <c r="O28" t="n">
         <v>1405.066081491645</v>
       </c>
       <c r="P28" t="n">
-        <v>1610.290558075365</v>
+        <v>1610.290558075366</v>
       </c>
       <c r="Q28" t="n">
-        <v>1693.859961209189</v>
+        <v>1693.85996120919</v>
       </c>
       <c r="R28" t="n">
-        <v>1645.558300053</v>
+        <v>1645.558300053001</v>
       </c>
       <c r="S28" t="n">
-        <v>1520.576850288155</v>
+        <v>1520.576850288156</v>
       </c>
       <c r="T28" t="n">
-        <v>1377.541459841116</v>
+        <v>1520.576850288156</v>
       </c>
       <c r="U28" t="n">
-        <v>1171.02637000745</v>
+        <v>1314.061760454491</v>
       </c>
       <c r="V28" t="n">
-        <v>998.9795280498905</v>
+        <v>1142.014918496931</v>
       </c>
       <c r="W28" t="n">
-        <v>792.2000042612576</v>
+        <v>935.2353947082985</v>
       </c>
       <c r="X28" t="n">
-        <v>646.8480996115679</v>
+        <v>789.8834900586089</v>
       </c>
       <c r="Y28" t="n">
-        <v>508.6931667163654</v>
+        <v>651.7285571634068</v>
       </c>
     </row>
     <row r="29">
@@ -6446,16 +6446,16 @@
         <v>1313.197071096531</v>
       </c>
       <c r="E29" t="n">
-        <v>1010.046464746614</v>
+        <v>1010.046464746615</v>
       </c>
       <c r="F29" t="n">
-        <v>681.6982062053346</v>
+        <v>681.6982062053352</v>
       </c>
       <c r="G29" t="n">
-        <v>347.2251968274006</v>
+        <v>347.2251968274013</v>
       </c>
       <c r="H29" t="n">
-        <v>111.4054709019726</v>
+        <v>111.4054709019728</v>
       </c>
       <c r="I29" t="n">
         <v>73.46830195908778</v>
@@ -6464,19 +6464,19 @@
         <v>260.2054441404284</v>
       </c>
       <c r="K29" t="n">
-        <v>660.8208179075381</v>
+        <v>660.8208179075382</v>
       </c>
       <c r="L29" t="n">
-        <v>1210.096241442437</v>
+        <v>1210.096241442436</v>
       </c>
       <c r="M29" t="n">
-        <v>1837.877529641656</v>
+        <v>1837.877529641655</v>
       </c>
       <c r="N29" t="n">
-        <v>2461.184977863255</v>
+        <v>2461.184977863254</v>
       </c>
       <c r="O29" t="n">
-        <v>3004.568888469955</v>
+        <v>3004.568888469954</v>
       </c>
       <c r="P29" t="n">
         <v>3430.660101634156</v>
@@ -6494,13 +6494,13 @@
         <v>3467.054122735633</v>
       </c>
       <c r="U29" t="n">
-        <v>3295.998235820097</v>
+        <v>3295.998235820096</v>
       </c>
       <c r="V29" t="n">
-        <v>3047.572994724854</v>
+        <v>3047.572994724853</v>
       </c>
       <c r="W29" t="n">
-        <v>2777.441985703068</v>
+        <v>2777.441985703067</v>
       </c>
       <c r="X29" t="n">
         <v>2486.613873690315</v>
@@ -6540,19 +6540,19 @@
         <v>73.46830195908778</v>
       </c>
       <c r="J30" t="n">
-        <v>174.0919717329579</v>
+        <v>190.9942848817978</v>
       </c>
       <c r="K30" t="n">
-        <v>501.5834389258243</v>
+        <v>518.4857520746643</v>
       </c>
       <c r="L30" t="n">
-        <v>1003.340527810704</v>
+        <v>1020.242840959544</v>
       </c>
       <c r="M30" t="n">
-        <v>1179.79859271422</v>
+        <v>1196.70090586306</v>
       </c>
       <c r="N30" t="n">
-        <v>1849.884573044239</v>
+        <v>1459.960876960276</v>
       </c>
       <c r="O30" t="n">
         <v>2006.542958788865</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>556.6438483590764</v>
+        <v>409.6823481344558</v>
       </c>
       <c r="C31" t="n">
-        <v>470.3453116794973</v>
+        <v>323.3838114548766</v>
       </c>
       <c r="D31" t="n">
-        <v>402.8663185154893</v>
+        <v>255.9048182908687</v>
       </c>
       <c r="E31" t="n">
-        <v>337.590871181424</v>
+        <v>255.9048182908687</v>
       </c>
       <c r="F31" t="n">
-        <v>273.3385699318414</v>
+        <v>255.9048182908687</v>
       </c>
       <c r="G31" t="n">
-        <v>187.3591107482108</v>
+        <v>169.9253591072384</v>
       </c>
       <c r="H31" t="n">
-        <v>115.6508893695765</v>
+        <v>98.21713772860407</v>
       </c>
       <c r="I31" t="n">
         <v>73.46830195908778</v>
@@ -6622,7 +6622,7 @@
         <v>136.2315990741175</v>
       </c>
       <c r="K31" t="n">
-        <v>317.1043329484212</v>
+        <v>317.1043329484214</v>
       </c>
       <c r="L31" t="n">
         <v>581.4353955911254</v>
@@ -6643,28 +6643,28 @@
         <v>1693.85996120919</v>
       </c>
       <c r="R31" t="n">
-        <v>1693.85996120919</v>
+        <v>1645.558300053001</v>
       </c>
       <c r="S31" t="n">
-        <v>1568.878511444344</v>
+        <v>1520.576850288156</v>
       </c>
       <c r="T31" t="n">
-        <v>1524.502960065737</v>
+        <v>1377.541459841117</v>
       </c>
       <c r="U31" t="n">
-        <v>1317.987870232072</v>
+        <v>1171.026370007452</v>
       </c>
       <c r="V31" t="n">
-        <v>1145.941028274513</v>
+        <v>998.9795280498921</v>
       </c>
       <c r="W31" t="n">
-        <v>939.1615044858802</v>
+        <v>792.2000042612593</v>
       </c>
       <c r="X31" t="n">
-        <v>793.8095998361906</v>
+        <v>646.8480996115699</v>
       </c>
       <c r="Y31" t="n">
-        <v>655.6546669409882</v>
+        <v>508.6931667163676</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6674,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1924.464278977955</v>
+        <v>1831.999994919983</v>
       </c>
       <c r="C32" t="n">
-        <v>1644.303693889736</v>
+        <v>1551.839409831764</v>
       </c>
       <c r="D32" t="n">
-        <v>1374.839927135179</v>
+        <v>1282.375643077207</v>
       </c>
       <c r="E32" t="n">
-        <v>1077.853606389127</v>
+        <v>985.389322331155</v>
       </c>
       <c r="F32" t="n">
-        <v>755.6696334517121</v>
+        <v>663.2053493937401</v>
       </c>
       <c r="G32" t="n">
-        <v>423.6985574718638</v>
+        <v>334.8966256196711</v>
       </c>
       <c r="H32" t="n">
-        <v>194.0431171503006</v>
+        <v>105.241185298108</v>
       </c>
       <c r="I32" t="n">
         <v>73.46830195908778</v>
       </c>
       <c r="J32" t="n">
-        <v>260.2054441404284</v>
+        <v>260.2054441404288</v>
       </c>
       <c r="K32" t="n">
-        <v>660.8208179075381</v>
+        <v>660.8208179075384</v>
       </c>
       <c r="L32" t="n">
         <v>1210.096241442436</v>
@@ -6722,28 +6722,28 @@
         <v>3673.415097954389</v>
       </c>
       <c r="R32" t="n">
-        <v>3673.415097954389</v>
+        <v>3671.978247677241</v>
       </c>
       <c r="S32" t="n">
-        <v>3605.48075415738</v>
+        <v>3515.24197202804</v>
       </c>
       <c r="T32" t="n">
-        <v>3479.382693943362</v>
+        <v>3386.91840988539</v>
       </c>
       <c r="U32" t="n">
-        <v>3314.491092631691</v>
+        <v>3222.026808573718</v>
       </c>
       <c r="V32" t="n">
-        <v>3072.230137140313</v>
+        <v>2979.76585308234</v>
       </c>
       <c r="W32" t="n">
-        <v>2808.263413722391</v>
+        <v>2715.799129664419</v>
       </c>
       <c r="X32" t="n">
-        <v>2523.599587313504</v>
+        <v>2431.135303255532</v>
       </c>
       <c r="Y32" t="n">
-        <v>2222.262187189885</v>
+        <v>2129.797903131913</v>
       </c>
     </row>
     <row r="33">
@@ -6777,16 +6777,16 @@
         <v>73.46830195908778</v>
       </c>
       <c r="J33" t="n">
-        <v>190.9942848817978</v>
+        <v>73.46830195908778</v>
       </c>
       <c r="K33" t="n">
-        <v>518.4857520746643</v>
+        <v>400.9597691519543</v>
       </c>
       <c r="L33" t="n">
-        <v>1020.242840959544</v>
+        <v>902.7168580368342</v>
       </c>
       <c r="M33" t="n">
-        <v>1654.347543314339</v>
+        <v>1540.22293605285</v>
       </c>
       <c r="N33" t="n">
         <v>1849.884573044239</v>
@@ -6832,34 +6832,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.4938491320218</v>
+        <v>513.4938491320225</v>
       </c>
       <c r="C34" t="n">
-        <v>433.3595980563075</v>
+        <v>433.3595980563082</v>
       </c>
       <c r="D34" t="n">
-        <v>372.0448904961644</v>
+        <v>372.0448904961652</v>
       </c>
       <c r="E34" t="n">
-        <v>312.933728765964</v>
+        <v>312.9337287659647</v>
       </c>
       <c r="F34" t="n">
-        <v>254.8457131202462</v>
+        <v>254.845713120247</v>
       </c>
       <c r="G34" t="n">
-        <v>175.0305395404807</v>
+        <v>175.0305395404815</v>
       </c>
       <c r="H34" t="n">
-        <v>109.4866037657114</v>
+        <v>109.486603765712</v>
       </c>
       <c r="I34" t="n">
         <v>73.46830195908778</v>
       </c>
       <c r="J34" t="n">
-        <v>142.2732153944654</v>
+        <v>142.2732153944656</v>
       </c>
       <c r="K34" t="n">
-        <v>329.1875655891174</v>
+        <v>329.1875655891173</v>
       </c>
       <c r="L34" t="n">
         <v>599.5602445521695</v>
@@ -6874,34 +6874,34 @@
         <v>1441.315779413733</v>
       </c>
       <c r="P34" t="n">
-        <v>1652.581872317801</v>
+        <v>1652.581872317802</v>
       </c>
       <c r="Q34" t="n">
-        <v>1742.192891771973</v>
+        <v>1742.192891771974</v>
       </c>
       <c r="R34" t="n">
-        <v>1700.055516219649</v>
+        <v>1700.05551621965</v>
       </c>
       <c r="S34" t="n">
-        <v>1581.238352058668</v>
+        <v>1581.238352058669</v>
       </c>
       <c r="T34" t="n">
-        <v>1444.367247215494</v>
+        <v>1444.367247215495</v>
       </c>
       <c r="U34" t="n">
-        <v>1244.016442985693</v>
+        <v>1244.016442985694</v>
       </c>
       <c r="V34" t="n">
-        <v>1078.133886631999</v>
+        <v>1078.133886632</v>
       </c>
       <c r="W34" t="n">
-        <v>877.5186484472312</v>
+        <v>877.5186484472317</v>
       </c>
       <c r="X34" t="n">
-        <v>738.3310294014065</v>
+        <v>738.331029401407</v>
       </c>
       <c r="Y34" t="n">
-        <v>606.3403821100688</v>
+        <v>606.3403821100696</v>
       </c>
     </row>
     <row r="35">
@@ -6917,16 +6917,16 @@
         <v>1549.9523836265</v>
       </c>
       <c r="D35" t="n">
-        <v>1280.488616871942</v>
+        <v>1280.488616871943</v>
       </c>
       <c r="E35" t="n">
-        <v>983.5022961258907</v>
+        <v>983.502296125891</v>
       </c>
       <c r="F35" t="n">
-        <v>661.3183231884757</v>
+        <v>661.3183231884759</v>
       </c>
       <c r="G35" t="n">
-        <v>333.0095994144065</v>
+        <v>333.0095994144062</v>
       </c>
       <c r="H35" t="n">
         <v>103.3541590928433</v>
@@ -6941,13 +6941,13 @@
         <v>658.9337917022733</v>
       </c>
       <c r="L35" t="n">
-        <v>1208.209215237172</v>
+        <v>1208.209215237171</v>
       </c>
       <c r="M35" t="n">
-        <v>1835.990503436391</v>
+        <v>1835.99050343639</v>
       </c>
       <c r="N35" t="n">
-        <v>2459.29795165799</v>
+        <v>2459.297951657989</v>
       </c>
       <c r="O35" t="n">
         <v>3002.68186226469</v>
@@ -6974,13 +6974,13 @@
         <v>2977.878826877076</v>
       </c>
       <c r="W35" t="n">
-        <v>2713.912103459154</v>
+        <v>2713.912103459155</v>
       </c>
       <c r="X35" t="n">
         <v>2429.248277050267</v>
       </c>
       <c r="Y35" t="n">
-        <v>2127.910876926648</v>
+        <v>2127.910876926649</v>
       </c>
     </row>
     <row r="36">
@@ -7014,19 +7014,19 @@
         <v>71.58127575382305</v>
       </c>
       <c r="J36" t="n">
-        <v>71.58127575382305</v>
+        <v>189.1072586765331</v>
       </c>
       <c r="K36" t="n">
-        <v>399.0727429466895</v>
+        <v>516.5987258693996</v>
       </c>
       <c r="L36" t="n">
-        <v>533.697889981145</v>
+        <v>1018.355814754279</v>
       </c>
       <c r="M36" t="n">
-        <v>1171.203967997161</v>
+        <v>1262.536821025112</v>
       </c>
       <c r="N36" t="n">
-        <v>1841.289948327179</v>
+        <v>1458.073850755012</v>
       </c>
       <c r="O36" t="n">
         <v>2004.655932583601</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>511.606822926758</v>
+        <v>511.6068229267566</v>
       </c>
       <c r="C37" t="n">
-        <v>431.4725718510437</v>
+        <v>431.4725718510423</v>
       </c>
       <c r="D37" t="n">
-        <v>370.1578642909005</v>
+        <v>370.1578642908992</v>
       </c>
       <c r="E37" t="n">
-        <v>311.0467025606999</v>
+        <v>311.0467025606997</v>
       </c>
       <c r="F37" t="n">
-        <v>252.9586869149822</v>
+        <v>252.9586869149819</v>
       </c>
       <c r="G37" t="n">
-        <v>173.1435133352166</v>
+        <v>173.1435133352164</v>
       </c>
       <c r="H37" t="n">
-        <v>107.599577560447</v>
+        <v>107.5995775604469</v>
       </c>
       <c r="I37" t="n">
         <v>71.58127575382305</v>
       </c>
       <c r="J37" t="n">
-        <v>140.3861891892024</v>
+        <v>140.3861891892007</v>
       </c>
       <c r="K37" t="n">
-        <v>327.300539383854</v>
+        <v>327.3005393838524</v>
       </c>
       <c r="L37" t="n">
-        <v>597.673218346906</v>
+        <v>597.6732183469044</v>
       </c>
       <c r="M37" t="n">
-        <v>888.4012303860097</v>
+        <v>888.4012303860081</v>
       </c>
       <c r="N37" t="n">
-        <v>1179.720488909101</v>
+        <v>1179.720488909099</v>
       </c>
       <c r="O37" t="n">
-        <v>1439.42875320847</v>
+        <v>1439.428753208468</v>
       </c>
       <c r="P37" t="n">
-        <v>1650.694846112538</v>
+        <v>1650.694846112536</v>
       </c>
       <c r="Q37" t="n">
-        <v>1740.30586556671</v>
+        <v>1740.305865566708</v>
       </c>
       <c r="R37" t="n">
-        <v>1698.168490014386</v>
+        <v>1698.168490014384</v>
       </c>
       <c r="S37" t="n">
-        <v>1579.351325853405</v>
+        <v>1579.351325853404</v>
       </c>
       <c r="T37" t="n">
-        <v>1442.480221010231</v>
+        <v>1442.480221010229</v>
       </c>
       <c r="U37" t="n">
-        <v>1242.12941678043</v>
+        <v>1242.129416780429</v>
       </c>
       <c r="V37" t="n">
-        <v>1076.246860426736</v>
+        <v>1076.246860426734</v>
       </c>
       <c r="W37" t="n">
-        <v>875.6316222419676</v>
+        <v>875.6316222419662</v>
       </c>
       <c r="X37" t="n">
-        <v>736.4440031961428</v>
+        <v>736.4440031961415</v>
       </c>
       <c r="Y37" t="n">
-        <v>604.4533559048052</v>
+        <v>604.4533559048036</v>
       </c>
     </row>
     <row r="38">
@@ -7157,19 +7157,19 @@
         <v>1280.488616871942</v>
       </c>
       <c r="E38" t="n">
-        <v>983.5022961258903</v>
+        <v>983.5022961258908</v>
       </c>
       <c r="F38" t="n">
-        <v>661.3183231884755</v>
+        <v>661.3183231884758</v>
       </c>
       <c r="G38" t="n">
-        <v>333.0095994144064</v>
+        <v>333.0095994144067</v>
       </c>
       <c r="H38" t="n">
-        <v>103.3541590928432</v>
+        <v>103.3541590928433</v>
       </c>
       <c r="I38" t="n">
-        <v>71.58127575382305</v>
+        <v>71.58127575382304</v>
       </c>
       <c r="J38" t="n">
         <v>258.3184179351637</v>
@@ -7181,16 +7181,16 @@
         <v>1208.209215237172</v>
       </c>
       <c r="M38" t="n">
-        <v>1743.526219378419</v>
+        <v>1835.990503436391</v>
       </c>
       <c r="N38" t="n">
-        <v>2366.833667600018</v>
+        <v>2459.29795165799</v>
       </c>
       <c r="O38" t="n">
-        <v>2910.217578206718</v>
+        <v>3002.68186226469</v>
       </c>
       <c r="P38" t="n">
-        <v>3336.30879137092</v>
+        <v>3336.308791370919</v>
       </c>
       <c r="Q38" t="n">
         <v>3579.063787691152</v>
@@ -7217,7 +7217,7 @@
         <v>2429.248277050267</v>
       </c>
       <c r="Y38" t="n">
-        <v>2127.910876926648</v>
+        <v>2127.910876926649</v>
       </c>
     </row>
     <row r="39">
@@ -7248,7 +7248,7 @@
         <v>117.9075054592597</v>
       </c>
       <c r="I39" t="n">
-        <v>71.58127575382305</v>
+        <v>71.58127575382304</v>
       </c>
       <c r="J39" t="n">
         <v>189.1072586765331</v>
@@ -7260,7 +7260,7 @@
         <v>1018.35581475428</v>
       </c>
       <c r="M39" t="n">
-        <v>1262.536821025112</v>
+        <v>1194.813879657795</v>
       </c>
       <c r="N39" t="n">
         <v>1458.073850755012</v>
@@ -7306,52 +7306,52 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>511.606822926757</v>
+        <v>511.6068229267575</v>
       </c>
       <c r="C40" t="n">
-        <v>431.4725718510428</v>
+        <v>431.4725718510432</v>
       </c>
       <c r="D40" t="n">
-        <v>370.1578642908997</v>
+        <v>370.1578642909001</v>
       </c>
       <c r="E40" t="n">
-        <v>311.0467025606993</v>
+        <v>311.0467025606996</v>
       </c>
       <c r="F40" t="n">
-        <v>252.9586869149816</v>
+        <v>252.9586869149819</v>
       </c>
       <c r="G40" t="n">
-        <v>173.1435133352161</v>
+        <v>173.1435133352163</v>
       </c>
       <c r="H40" t="n">
-        <v>107.5995775604469</v>
+        <v>107.599577560447</v>
       </c>
       <c r="I40" t="n">
-        <v>71.58127575382305</v>
+        <v>71.58127575382304</v>
       </c>
       <c r="J40" t="n">
-        <v>140.3861891892007</v>
+        <v>140.3861891892006</v>
       </c>
       <c r="K40" t="n">
-        <v>327.3005393838525</v>
+        <v>327.3005393838524</v>
       </c>
       <c r="L40" t="n">
-        <v>597.6732183469046</v>
+        <v>597.6732183469044</v>
       </c>
       <c r="M40" t="n">
-        <v>888.4012303860079</v>
+        <v>888.4012303860081</v>
       </c>
       <c r="N40" t="n">
-        <v>1179.720488909099</v>
+        <v>1179.7204889091</v>
       </c>
       <c r="O40" t="n">
-        <v>1439.428753208468</v>
+        <v>1439.428753208469</v>
       </c>
       <c r="P40" t="n">
-        <v>1650.694846112536</v>
+        <v>1650.694846112537</v>
       </c>
       <c r="Q40" t="n">
-        <v>1740.305865566708</v>
+        <v>1740.305865566709</v>
       </c>
       <c r="R40" t="n">
         <v>1698.168490014385</v>
@@ -7360,22 +7360,22 @@
         <v>1579.351325853404</v>
       </c>
       <c r="T40" t="n">
-        <v>1442.480221010229</v>
+        <v>1442.48022101023</v>
       </c>
       <c r="U40" t="n">
         <v>1242.129416780429</v>
       </c>
       <c r="V40" t="n">
-        <v>1076.246860426734</v>
+        <v>1076.246860426735</v>
       </c>
       <c r="W40" t="n">
-        <v>875.6316222419662</v>
+        <v>875.6316222419669</v>
       </c>
       <c r="X40" t="n">
-        <v>736.4440031961415</v>
+        <v>736.4440031961421</v>
       </c>
       <c r="Y40" t="n">
-        <v>604.4533559048041</v>
+        <v>604.4533559048045</v>
       </c>
     </row>
     <row r="41">
@@ -7388,22 +7388,22 @@
         <v>1830.112968714719</v>
       </c>
       <c r="C41" t="n">
-        <v>1549.9523836265</v>
+        <v>1549.952383626501</v>
       </c>
       <c r="D41" t="n">
-        <v>1280.488616871942</v>
+        <v>1280.488616871943</v>
       </c>
       <c r="E41" t="n">
-        <v>983.5022961258903</v>
+        <v>983.5022961258909</v>
       </c>
       <c r="F41" t="n">
-        <v>661.3183231884755</v>
+        <v>661.3183231884759</v>
       </c>
       <c r="G41" t="n">
-        <v>333.0095994144064</v>
+        <v>333.0095994144068</v>
       </c>
       <c r="H41" t="n">
-        <v>103.3541590928432</v>
+        <v>103.3541590928433</v>
       </c>
       <c r="I41" t="n">
         <v>71.58127575382305</v>
@@ -7442,13 +7442,13 @@
         <v>3385.031383680126</v>
       </c>
       <c r="U41" t="n">
-        <v>3220.139782368454</v>
+        <v>3220.139782368455</v>
       </c>
       <c r="V41" t="n">
         <v>2977.878826877076</v>
       </c>
       <c r="W41" t="n">
-        <v>2713.912103459154</v>
+        <v>2713.912103459155</v>
       </c>
       <c r="X41" t="n">
         <v>2429.248277050267</v>
@@ -7497,10 +7497,10 @@
         <v>1018.35581475428</v>
       </c>
       <c r="M42" t="n">
-        <v>1652.460517109074</v>
+        <v>1194.813879657795</v>
       </c>
       <c r="N42" t="n">
-        <v>1847.997546838974</v>
+        <v>1458.073850755012</v>
       </c>
       <c r="O42" t="n">
         <v>2004.655932583601</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>511.6068229267571</v>
+        <v>511.6068229267576</v>
       </c>
       <c r="C43" t="n">
-        <v>431.4725718510428</v>
+        <v>431.4725718510433</v>
       </c>
       <c r="D43" t="n">
-        <v>370.1578642908997</v>
+        <v>370.1578642909002</v>
       </c>
       <c r="E43" t="n">
-        <v>311.0467025606993</v>
+        <v>311.0467025606997</v>
       </c>
       <c r="F43" t="n">
-        <v>252.9586869149815</v>
+        <v>252.958686914982</v>
       </c>
       <c r="G43" t="n">
-        <v>173.143513335216</v>
+        <v>173.1435133352164</v>
       </c>
       <c r="H43" t="n">
         <v>107.5995775604469</v>
@@ -7573,13 +7573,13 @@
         <v>327.3005393838524</v>
       </c>
       <c r="L43" t="n">
-        <v>597.6732183469045</v>
+        <v>597.6732183469044</v>
       </c>
       <c r="M43" t="n">
-        <v>888.4012303860084</v>
+        <v>888.4012303860081</v>
       </c>
       <c r="N43" t="n">
-        <v>1179.7204889091</v>
+        <v>1179.720488909099</v>
       </c>
       <c r="O43" t="n">
         <v>1439.428753208468</v>
@@ -7597,7 +7597,7 @@
         <v>1579.351325853404</v>
       </c>
       <c r="T43" t="n">
-        <v>1442.480221010229</v>
+        <v>1442.48022101023</v>
       </c>
       <c r="U43" t="n">
         <v>1242.129416780429</v>
@@ -7606,13 +7606,13 @@
         <v>1076.246860426734</v>
       </c>
       <c r="W43" t="n">
-        <v>875.6316222419664</v>
+        <v>875.6316222419665</v>
       </c>
       <c r="X43" t="n">
-        <v>736.4440031961417</v>
+        <v>736.4440031961418</v>
       </c>
       <c r="Y43" t="n">
-        <v>604.4533559048042</v>
+        <v>604.4533559048048</v>
       </c>
     </row>
     <row r="44">
@@ -7646,25 +7646,25 @@
         <v>71.58127575382305</v>
       </c>
       <c r="J44" t="n">
-        <v>165.8541338771919</v>
+        <v>258.3184179351637</v>
       </c>
       <c r="K44" t="n">
-        <v>566.4695076443016</v>
+        <v>658.9337917022733</v>
       </c>
       <c r="L44" t="n">
-        <v>1115.7449311792</v>
+        <v>1208.209215237172</v>
       </c>
       <c r="M44" t="n">
-        <v>1743.526219378419</v>
+        <v>1835.990503436391</v>
       </c>
       <c r="N44" t="n">
-        <v>2366.833667600018</v>
+        <v>2459.29795165799</v>
       </c>
       <c r="O44" t="n">
-        <v>2910.217578206718</v>
+        <v>3002.68186226469</v>
       </c>
       <c r="P44" t="n">
-        <v>3336.30879137092</v>
+        <v>3428.773075428891</v>
       </c>
       <c r="Q44" t="n">
         <v>3579.063787691152</v>
@@ -7685,7 +7685,7 @@
         <v>2977.878826877076</v>
       </c>
       <c r="W44" t="n">
-        <v>2713.912103459155</v>
+        <v>2713.912103459154</v>
       </c>
       <c r="X44" t="n">
         <v>2429.248277050267</v>
@@ -7734,7 +7734,7 @@
         <v>1018.35581475428</v>
       </c>
       <c r="M45" t="n">
-        <v>1262.536821025112</v>
+        <v>1194.813879657795</v>
       </c>
       <c r="N45" t="n">
         <v>1458.073850755012</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>511.6068229267576</v>
+        <v>511.6068229267572</v>
       </c>
       <c r="C46" t="n">
-        <v>431.4725718510433</v>
+        <v>431.4725718510429</v>
       </c>
       <c r="D46" t="n">
-        <v>370.1578642909001</v>
+        <v>370.1578642908999</v>
       </c>
       <c r="E46" t="n">
-        <v>311.0467025606996</v>
+        <v>311.0467025606994</v>
       </c>
       <c r="F46" t="n">
-        <v>252.9586869149819</v>
+        <v>252.9586869149816</v>
       </c>
       <c r="G46" t="n">
-        <v>173.1435133352164</v>
+        <v>173.1435133352161</v>
       </c>
       <c r="H46" t="n">
         <v>107.5995775604469</v>
@@ -7807,49 +7807,49 @@
         <v>140.3861891892007</v>
       </c>
       <c r="K46" t="n">
-        <v>327.3005393838525</v>
+        <v>327.3005393838524</v>
       </c>
       <c r="L46" t="n">
-        <v>597.6732183469045</v>
+        <v>597.6732183469042</v>
       </c>
       <c r="M46" t="n">
-        <v>888.4012303860084</v>
+        <v>888.4012303860078</v>
       </c>
       <c r="N46" t="n">
-        <v>1179.7204889091</v>
+        <v>1179.720488909099</v>
       </c>
       <c r="O46" t="n">
         <v>1439.428753208468</v>
       </c>
       <c r="P46" t="n">
-        <v>1650.694846112537</v>
+        <v>1650.694846112536</v>
       </c>
       <c r="Q46" t="n">
-        <v>1740.305865566709</v>
+        <v>1740.305865566708</v>
       </c>
       <c r="R46" t="n">
-        <v>1698.168490014385</v>
+        <v>1698.168490014384</v>
       </c>
       <c r="S46" t="n">
         <v>1579.351325853404</v>
       </c>
       <c r="T46" t="n">
-        <v>1442.48022101023</v>
+        <v>1442.480221010229</v>
       </c>
       <c r="U46" t="n">
         <v>1242.129416780429</v>
       </c>
       <c r="V46" t="n">
-        <v>1076.246860426735</v>
+        <v>1076.246860426734</v>
       </c>
       <c r="W46" t="n">
-        <v>875.6316222419669</v>
+        <v>875.6316222419662</v>
       </c>
       <c r="X46" t="n">
-        <v>736.4440031961421</v>
+        <v>736.4440031961415</v>
       </c>
       <c r="Y46" t="n">
-        <v>604.4533559048047</v>
+        <v>604.4533559048043</v>
       </c>
     </row>
   </sheetData>
@@ -8058,25 +8058,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>360.302996258564</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,13 +8295,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>312.04082470182</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N6" t="n">
         <v>131.3417120833333</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8541,13 +8541,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>301.2485028631349</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
         <v>139.9817740860215</v>
@@ -8766,7 +8766,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>7.377921277065369</v>
+        <v>42.45590211735708</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8784,7 +8784,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>35.07798084029218</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -8936,7 +8936,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119841</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
@@ -9012,7 +9012,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>68.40701148213739</v>
+        <v>68.40701148213711</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9170,7 +9170,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928326</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
         <v>437.3469244119842</v>
@@ -9182,7 +9182,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599046</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9240,28 +9240,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>109.017991755722</v>
+        <v>7.377921277065369</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>141.4530891311724</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9486,10 +9486,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
         <v>68.40701148213739</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9723,10 +9723,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>68.40701148213739</v>
       </c>
       <c r="N24" t="n">
-        <v>68.40701148213739</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9951,28 +9951,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>7.377921277065369</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>68.40701148213739</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>35.07798084029213</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10188,7 +10188,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>109.017991755722</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10200,10 +10200,10 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>68.40701148213773</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720741</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10425,7 +10425,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>7.377921277065383</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10434,10 +10434,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>462.2693307588668</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>115.2773810722108</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10604,7 +10604,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>118.9167239346806</v>
+        <v>118.9167239346811</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10662,22 +10662,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>7.377921277065369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>68.40701148213773</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>6.77535203211599</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
@@ -10829,7 +10829,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>356.1152667676085</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10838,7 +10838,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>228.400441446258</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -10908,10 +10908,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>68.40701148213751</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>68.40701148213768</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -11145,13 +11145,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>462.2693307588669</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>68.40701148213768</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>75.69834844684979</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11315,7 +11315,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>118.9167239346806</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11382,10 +11382,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>68.40701148213751</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>68.40701148213768</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>362.3140662372057</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23306,16 +23306,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>134.7491374664341</v>
       </c>
       <c r="T11" t="n">
-        <v>192.3312167192736</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>126.355692604667</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>307.33248304386</v>
+        <v>128.9561886641617</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>159.4122047556623</v>
+        <v>159.4122047556624</v>
       </c>
       <c r="C13" t="n">
-        <v>146.8270456723529</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>128.1956975919374</v>
+        <v>128.1956975919375</v>
       </c>
       <c r="E13" t="n">
-        <v>126.0141872202942</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>125.0012725966563</v>
+        <v>33.35277155789743</v>
       </c>
       <c r="G13" t="n">
-        <v>146.5111589513636</v>
+        <v>146.5111589513637</v>
       </c>
       <c r="H13" t="n">
         <v>132.3826335244176</v>
       </c>
       <c r="I13" t="n">
-        <v>103.1522558959534</v>
+        <v>103.1522558959535</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,25 +23461,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.2101389041962</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>185.1231296267667</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>202.9965309021383</v>
+        <v>202.9965309021384</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>231.7178678975531</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>266.1032229103161</v>
       </c>
       <c r="X13" t="n">
-        <v>44.28796830826149</v>
+        <v>205.2898799627623</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23498,13 +23498,13 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>334.2632661944081</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>242.7398968502134</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>28.79197260747904</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,22 +23543,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>134.7491374664341</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>192.3312167192737</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>230.7368224059508</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>328.8211932911381</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>349.3113252521941</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23650,10 +23650,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>159.4122047556625</v>
+        <v>159.4122047556624</v>
       </c>
       <c r="C16" t="n">
-        <v>146.827045672353</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23662,16 +23662,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>125.0012725966564</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>146.5111589513637</v>
       </c>
       <c r="H16" t="n">
-        <v>68.95931229144796</v>
+        <v>132.3826335244176</v>
       </c>
       <c r="I16" t="n">
-        <v>103.1522558959535</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,25 +23701,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>185.1231296267669</v>
+        <v>185.1231296267668</v>
       </c>
       <c r="T16" t="n">
         <v>202.9965309021384</v>
       </c>
       <c r="U16" t="n">
-        <v>265.8414332948986</v>
+        <v>265.8414332948985</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>231.7178678975531</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>266.1032229103161</v>
       </c>
       <c r="X16" t="n">
-        <v>205.2898799627623</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>19.02604208688537</v>
       </c>
     </row>
     <row r="17">
@@ -23890,13 +23890,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>85.43555131278329</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>8.718501656124651</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>41.76076153638381</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,7 +23941,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>18.29557237320714</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>136.7733835662503</v>
       </c>
     </row>
     <row r="20">
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>41.76076153638381</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>1.593499619181302</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24190,10 +24190,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>143.8983856031926</v>
       </c>
       <c r="Y22" t="n">
-        <v>103.73112368599</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24364,16 +24364,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>85.43555131278329</v>
       </c>
       <c r="D25" t="n">
-        <v>66.80420323236781</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>64.62269286072463</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>60.05633390959088</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>14.06498912928117</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24601,7 +24601,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>81.88210698529045</v>
+        <v>3.886848679805439</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24610,7 +24610,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>63.60977823708683</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24652,7 +24652,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>141.6050365425688</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24844,10 +24844,10 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>64.62269286072463</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>63.6097782370867</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>17.2594141245627</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>47.81864454462667</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>97.67324067774777</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25318,7 +25318,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>968572.2011049846</v>
+        <v>968572.2011049845</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>968572.2011049845</v>
+        <v>968572.2011049846</v>
       </c>
     </row>
     <row r="7">
@@ -26311,31 +26311,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>389994.8406855348</v>
+        <v>389994.8406855347</v>
       </c>
       <c r="C2" t="n">
         <v>389994.8406855346</v>
       </c>
       <c r="D2" t="n">
-        <v>389994.8406855346</v>
+        <v>389994.8406855348</v>
       </c>
       <c r="E2" t="n">
-        <v>336832.7525064744</v>
+        <v>336832.7525064745</v>
       </c>
       <c r="F2" t="n">
-        <v>336832.7525064745</v>
+        <v>336832.7525064743</v>
       </c>
       <c r="G2" t="n">
-        <v>388336.2331939992</v>
+        <v>388336.2331939996</v>
       </c>
       <c r="H2" t="n">
-        <v>388336.2331939993</v>
+        <v>388336.2331939994</v>
       </c>
       <c r="I2" t="n">
         <v>388336.2331939992</v>
       </c>
       <c r="J2" t="n">
-        <v>388336.2331939995</v>
+        <v>388336.2331939994</v>
       </c>
       <c r="K2" t="n">
         <v>388336.2331939993</v>
@@ -26344,10 +26344,10 @@
         <v>389994.8406855339</v>
       </c>
       <c r="M2" t="n">
-        <v>389994.8406855348</v>
+        <v>389994.8406855344</v>
       </c>
       <c r="N2" t="n">
-        <v>389994.840685534</v>
+        <v>389994.8406855344</v>
       </c>
       <c r="O2" t="n">
         <v>389994.8406855343</v>
@@ -26378,31 +26378,31 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>49113.19548765576</v>
+        <v>49113.19548765568</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>79395.76294012612</v>
+        <v>79395.76294012615</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>53995.3096859167</v>
+        <v>53995.30968591662</v>
       </c>
       <c r="M3" t="n">
-        <v>162917.5281914783</v>
+        <v>162917.5281914784</v>
       </c>
       <c r="N3" t="n">
-        <v>7.958078640513122e-11</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>16335.82034101985</v>
+        <v>16335.82034101989</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,13 +26424,13 @@
         <v>346065.6887052709</v>
       </c>
       <c r="E4" t="n">
-        <v>85777.46094060859</v>
+        <v>85777.46094060852</v>
       </c>
       <c r="F4" t="n">
-        <v>85777.46094060848</v>
+        <v>85777.46094060852</v>
       </c>
       <c r="G4" t="n">
-        <v>147816.3730406427</v>
+        <v>147816.3730406426</v>
       </c>
       <c r="H4" t="n">
         <v>147816.3730406427</v>
@@ -26439,10 +26439,10 @@
         <v>147816.3730406427</v>
       </c>
       <c r="J4" t="n">
-        <v>147816.3730406426</v>
+        <v>147816.3730406427</v>
       </c>
       <c r="K4" t="n">
-        <v>147816.3730406427</v>
+        <v>147816.3730406428</v>
       </c>
       <c r="L4" t="n">
         <v>149824.4466330966</v>
@@ -26482,7 +26482,7 @@
         <v>70367.55973007939</v>
       </c>
       <c r="G5" t="n">
-        <v>75528.68126939406</v>
+        <v>75528.68126939404</v>
       </c>
       <c r="H5" t="n">
         <v>75528.68126939406</v>
@@ -26491,10 +26491,10 @@
         <v>75528.68126939406</v>
       </c>
       <c r="J5" t="n">
+        <v>75528.68126939406</v>
+      </c>
+      <c r="K5" t="n">
         <v>75528.68126939404</v>
-      </c>
-      <c r="K5" t="n">
-        <v>75528.68126939406</v>
       </c>
       <c r="L5" t="n">
         <v>76041.72434256105</v>
@@ -26519,43 +26519,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-85121.54831504554</v>
+        <v>-85121.5483150456</v>
       </c>
       <c r="C6" t="n">
-        <v>-4352.116783497906</v>
+        <v>-4352.116783497964</v>
       </c>
       <c r="D6" t="n">
-        <v>-4352.116783497906</v>
+        <v>-4352.11678349779</v>
       </c>
       <c r="E6" t="n">
-        <v>-510161.6881788889</v>
+        <v>-510441.4886429891</v>
       </c>
       <c r="F6" t="n">
-        <v>180687.7318357868</v>
+        <v>180407.9313716861</v>
       </c>
       <c r="G6" t="n">
-        <v>115877.9833963067</v>
+        <v>115869.2538831938</v>
       </c>
       <c r="H6" t="n">
-        <v>164991.1788839625</v>
+        <v>164982.4493708492</v>
       </c>
       <c r="I6" t="n">
-        <v>164991.1788839624</v>
+        <v>164982.449370849</v>
       </c>
       <c r="J6" t="n">
-        <v>85595.41594383675</v>
+        <v>85586.68643072316</v>
       </c>
       <c r="K6" t="n">
-        <v>164991.1788839625</v>
+        <v>164982.4493708492</v>
       </c>
       <c r="L6" t="n">
         <v>110133.3600239596</v>
       </c>
       <c r="M6" t="n">
-        <v>-15.59234625785029</v>
+        <v>-15.59234625837422</v>
       </c>
       <c r="N6" t="n">
-        <v>162901.9358452196</v>
+        <v>162901.9358452201</v>
       </c>
       <c r="O6" t="n">
         <v>146566.1155042001</v>
@@ -26692,13 +26692,13 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>20.41977542627496</v>
+        <v>20.41977542627489</v>
       </c>
       <c r="F2" t="n">
-        <v>20.41977542627484</v>
+        <v>20.41977542627489</v>
       </c>
       <c r="G2" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584449</v>
       </c>
       <c r="H2" t="n">
         <v>81.81126978584454</v>
@@ -26707,22 +26707,22 @@
         <v>81.81126978584454</v>
       </c>
       <c r="J2" t="n">
-        <v>81.81126978584442</v>
+        <v>81.81126978584452</v>
       </c>
       <c r="K2" t="n">
-        <v>81.81126978584453</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="L2" t="n">
+        <v>87.91391253367071</v>
+      </c>
+      <c r="M2" t="n">
         <v>87.9139125336707</v>
       </c>
-      <c r="M2" t="n">
-        <v>87.91391253367063</v>
-      </c>
       <c r="N2" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="O2" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="P2" t="n">
         <v>87.91391253367071</v>
@@ -26744,10 +26744,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>587.8431257275771</v>
+        <v>587.8431257275772</v>
       </c>
       <c r="F3" t="n">
-        <v>587.8431257275771</v>
+        <v>587.8431257275772</v>
       </c>
       <c r="G3" t="n">
         <v>587.8431257275771</v>
@@ -26762,13 +26762,13 @@
         <v>587.8431257275771</v>
       </c>
       <c r="K3" t="n">
-        <v>587.8431257275771</v>
+        <v>587.843125727577</v>
       </c>
       <c r="L3" t="n">
-        <v>587.8431257275771</v>
+        <v>587.843125727577</v>
       </c>
       <c r="M3" t="n">
-        <v>587.8431257275771</v>
+        <v>587.843125727577</v>
       </c>
       <c r="N3" t="n">
         <v>587.8431257275771</v>
@@ -26796,7 +26796,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>918.3537744885972</v>
+        <v>918.3537744885973</v>
       </c>
       <c r="F4" t="n">
         <v>918.3537744885972</v>
@@ -26814,7 +26814,7 @@
         <v>918.3537744885973</v>
       </c>
       <c r="K4" t="n">
-        <v>918.3537744885973</v>
+        <v>918.3537744885972</v>
       </c>
       <c r="L4" t="n">
         <v>918.3537744885972</v>
@@ -26823,7 +26823,7 @@
         <v>894.7659469227881</v>
       </c>
       <c r="N4" t="n">
-        <v>894.7659469227881</v>
+        <v>894.765946922788</v>
       </c>
       <c r="O4" t="n">
         <v>894.7659469227881</v>
@@ -26914,37 +26914,37 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>20.41977542627496</v>
+        <v>20.41977542627489</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>61.39149435956971</v>
+        <v>61.39149435956961</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>20.41977542627483</v>
+        <v>20.41977542627486</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>67.49413710739587</v>
+        <v>67.49413710739577</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>9.947598300641403e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>20.41977542627482</v>
+        <v>20.41977542627486</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>587.8431257275771</v>
+        <v>587.8431257275772</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>677.3394856109381</v>
+        <v>677.3394856109383</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>653.751658045129</v>
+        <v>653.7516580451291</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,22 +27151,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>20.41977542627496</v>
+        <v>20.41977542627489</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>61.39149435956971</v>
+        <v>61.39149435956961</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>20.41977542627483</v>
+        <v>20.41977542627486</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>677.3394856109381</v>
+        <v>677.3394856109383</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,22 +27376,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>152.3883551917857</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>165.8617568640524</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
@@ -27400,7 +27400,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27436,16 +27436,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>201.5644868610308</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="3">
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -27467,7 +27467,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>137.3435171632106</v>
@@ -27476,7 +27476,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,28 +27503,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>110.673636074712</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>174.8211360628979</v>
       </c>
     </row>
     <row r="4">
@@ -27537,7 +27537,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>152.4099661909219</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27558,10 +27558,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27576,7 +27576,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
@@ -27594,7 +27594,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27622,13 +27622,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>363.6328741959732</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>381.7025041237114</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -27670,7 +27670,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27682,7 +27682,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="6">
@@ -27692,28 +27692,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>56.45145718935679</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,7 +27740,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
@@ -27755,13 +27755,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>167.9685199823664</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27783,7 +27783,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>14.95552117266971</v>
       </c>
       <c r="G7" t="n">
         <v>167.9909793584588</v>
@@ -27822,7 +27822,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>93.55107118671071</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
         <v>227.9455894282815</v>
@@ -27859,13 +27859,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>341.4540909391266</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>165.8617568640524</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -27901,16 +27901,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>259.542103988905</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27919,7 +27919,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27929,28 +27929,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>26.51519937644221</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -27989,16 +27989,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>116.4754883813142</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28026,16 +28026,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>162.2271725074396</v>
+        <v>147.3903175997337</v>
       </c>
       <c r="I10" t="n">
         <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28050,7 +28050,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
@@ -28062,7 +28062,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
         <v>286.3190293564909</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>20.41977542627496</v>
+        <v>20.41977542627489</v>
       </c>
       <c r="C11" t="n">
-        <v>20.41977542627496</v>
+        <v>20.41977542627489</v>
       </c>
       <c r="D11" t="n">
-        <v>20.41977542627496</v>
+        <v>20.41977542627489</v>
       </c>
       <c r="E11" t="n">
-        <v>20.41977542627496</v>
+        <v>20.41977542627489</v>
       </c>
       <c r="F11" t="n">
-        <v>20.41977542627496</v>
+        <v>20.41977542627489</v>
       </c>
       <c r="G11" t="n">
-        <v>20.41977542627496</v>
+        <v>20.41977542627489</v>
       </c>
       <c r="H11" t="n">
-        <v>20.41977542627496</v>
+        <v>20.41977542627489</v>
       </c>
       <c r="I11" t="n">
-        <v>20.41977542627496</v>
+        <v>20.41977542627489</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28135,28 +28135,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>1.422481774376138</v>
+        <v>1.422481774376109</v>
       </c>
       <c r="S11" t="n">
-        <v>20.41977542627496</v>
+        <v>20.41977542627489</v>
       </c>
       <c r="T11" t="n">
-        <v>20.41977542627496</v>
+        <v>20.41977542627489</v>
       </c>
       <c r="U11" t="n">
-        <v>20.41977542627496</v>
+        <v>20.41977542627489</v>
       </c>
       <c r="V11" t="n">
-        <v>20.41977542627496</v>
+        <v>20.41977542627489</v>
       </c>
       <c r="W11" t="n">
-        <v>20.41977542627496</v>
+        <v>20.41977542627489</v>
       </c>
       <c r="X11" t="n">
-        <v>20.41977542627496</v>
+        <v>20.41977542627489</v>
       </c>
       <c r="Y11" t="n">
-        <v>20.41977542627496</v>
+        <v>20.41977542627489</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>20.41977542627496</v>
+        <v>20.41977542627489</v>
       </c>
       <c r="C13" t="n">
-        <v>20.41977542627496</v>
+        <v>20.41977542627489</v>
       </c>
       <c r="D13" t="n">
-        <v>20.41977542627496</v>
+        <v>20.41977542627489</v>
       </c>
       <c r="E13" t="n">
-        <v>20.41977542627496</v>
+        <v>20.41977542627489</v>
       </c>
       <c r="F13" t="n">
-        <v>20.41977542627496</v>
+        <v>20.41977542627489</v>
       </c>
       <c r="G13" t="n">
-        <v>20.41977542627496</v>
+        <v>20.41977542627489</v>
       </c>
       <c r="H13" t="n">
-        <v>20.41977542627496</v>
+        <v>20.41977542627489</v>
       </c>
       <c r="I13" t="n">
-        <v>20.41977542627496</v>
+        <v>20.41977542627489</v>
       </c>
       <c r="J13" t="n">
-        <v>20.41977542627496</v>
+        <v>20.41977542627489</v>
       </c>
       <c r="K13" t="n">
-        <v>20.41977542627496</v>
+        <v>20.41977542627489</v>
       </c>
       <c r="L13" t="n">
-        <v>20.41977542627496</v>
+        <v>20.41977542627489</v>
       </c>
       <c r="M13" t="n">
-        <v>20.41977542627496</v>
+        <v>20.41977542627489</v>
       </c>
       <c r="N13" t="n">
-        <v>20.41977542627496</v>
+        <v>20.41977542627489</v>
       </c>
       <c r="O13" t="n">
-        <v>20.41977542627496</v>
+        <v>20.41977542627489</v>
       </c>
       <c r="P13" t="n">
-        <v>20.41977542627496</v>
+        <v>20.41977542627489</v>
       </c>
       <c r="Q13" t="n">
-        <v>20.41977542627496</v>
+        <v>20.41977542627489</v>
       </c>
       <c r="R13" t="n">
-        <v>20.41977542627496</v>
+        <v>20.41977542627489</v>
       </c>
       <c r="S13" t="n">
-        <v>20.41977542627496</v>
+        <v>20.41977542627489</v>
       </c>
       <c r="T13" t="n">
-        <v>20.41977542627496</v>
+        <v>20.41977542627489</v>
       </c>
       <c r="U13" t="n">
-        <v>20.41977542627496</v>
+        <v>20.41977542627489</v>
       </c>
       <c r="V13" t="n">
-        <v>20.41977542627496</v>
+        <v>20.41977542627489</v>
       </c>
       <c r="W13" t="n">
-        <v>20.41977542627496</v>
+        <v>20.41977542627489</v>
       </c>
       <c r="X13" t="n">
-        <v>20.41977542627496</v>
+        <v>20.41977542627489</v>
       </c>
       <c r="Y13" t="n">
-        <v>20.41977542627496</v>
+        <v>20.41977542627489</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>20.41977542627484</v>
+        <v>20.41977542627489</v>
       </c>
       <c r="C14" t="n">
-        <v>20.41977542627484</v>
+        <v>20.41977542627489</v>
       </c>
       <c r="D14" t="n">
-        <v>20.41977542627484</v>
+        <v>20.41977542627489</v>
       </c>
       <c r="E14" t="n">
-        <v>20.41977542627484</v>
+        <v>20.41977542627489</v>
       </c>
       <c r="F14" t="n">
-        <v>20.41977542627484</v>
+        <v>20.41977542627489</v>
       </c>
       <c r="G14" t="n">
-        <v>20.41977542627484</v>
+        <v>20.41977542627489</v>
       </c>
       <c r="H14" t="n">
-        <v>20.41977542627484</v>
+        <v>20.41977542627489</v>
       </c>
       <c r="I14" t="n">
-        <v>20.41977542627484</v>
+        <v>20.41977542627489</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28372,28 +28372,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>1.422481774376138</v>
+        <v>1.422481774376109</v>
       </c>
       <c r="S14" t="n">
-        <v>20.41977542627484</v>
+        <v>20.41977542627489</v>
       </c>
       <c r="T14" t="n">
-        <v>20.41977542627484</v>
+        <v>20.41977542627489</v>
       </c>
       <c r="U14" t="n">
-        <v>20.41977542627484</v>
+        <v>20.41977542627489</v>
       </c>
       <c r="V14" t="n">
-        <v>20.41977542627484</v>
+        <v>20.41977542627489</v>
       </c>
       <c r="W14" t="n">
-        <v>20.41977542627484</v>
+        <v>20.41977542627489</v>
       </c>
       <c r="X14" t="n">
-        <v>20.41977542627484</v>
+        <v>20.41977542627489</v>
       </c>
       <c r="Y14" t="n">
-        <v>20.41977542627484</v>
+        <v>20.41977542627489</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>20.41977542627484</v>
+        <v>20.41977542627489</v>
       </c>
       <c r="C16" t="n">
-        <v>20.41977542627484</v>
+        <v>20.41977542627489</v>
       </c>
       <c r="D16" t="n">
-        <v>20.41977542627484</v>
+        <v>20.41977542627489</v>
       </c>
       <c r="E16" t="n">
-        <v>20.41977542627484</v>
+        <v>20.41977542627489</v>
       </c>
       <c r="F16" t="n">
-        <v>20.41977542627484</v>
+        <v>20.41977542627489</v>
       </c>
       <c r="G16" t="n">
-        <v>20.41977542627484</v>
+        <v>20.41977542627489</v>
       </c>
       <c r="H16" t="n">
-        <v>20.41977542627484</v>
+        <v>20.41977542627489</v>
       </c>
       <c r="I16" t="n">
-        <v>20.41977542627484</v>
+        <v>20.41977542627489</v>
       </c>
       <c r="J16" t="n">
-        <v>20.41977542627484</v>
+        <v>20.41977542627489</v>
       </c>
       <c r="K16" t="n">
-        <v>20.41977542627484</v>
+        <v>20.41977542627489</v>
       </c>
       <c r="L16" t="n">
-        <v>20.41977542627484</v>
+        <v>20.41977542627489</v>
       </c>
       <c r="M16" t="n">
-        <v>20.41977542627484</v>
+        <v>20.41977542627489</v>
       </c>
       <c r="N16" t="n">
-        <v>20.41977542627484</v>
+        <v>20.41977542627489</v>
       </c>
       <c r="O16" t="n">
-        <v>20.41977542627484</v>
+        <v>20.41977542627489</v>
       </c>
       <c r="P16" t="n">
-        <v>20.41977542627484</v>
+        <v>20.41977542627489</v>
       </c>
       <c r="Q16" t="n">
-        <v>20.41977542627484</v>
+        <v>20.41977542627489</v>
       </c>
       <c r="R16" t="n">
-        <v>20.41977542627484</v>
+        <v>20.41977542627489</v>
       </c>
       <c r="S16" t="n">
-        <v>20.41977542627484</v>
+        <v>20.41977542627489</v>
       </c>
       <c r="T16" t="n">
-        <v>20.41977542627484</v>
+        <v>20.41977542627489</v>
       </c>
       <c r="U16" t="n">
-        <v>20.41977542627484</v>
+        <v>20.41977542627489</v>
       </c>
       <c r="V16" t="n">
-        <v>20.41977542627484</v>
+        <v>20.41977542627489</v>
       </c>
       <c r="W16" t="n">
-        <v>20.41977542627484</v>
+        <v>20.41977542627489</v>
       </c>
       <c r="X16" t="n">
-        <v>20.41977542627484</v>
+        <v>20.41977542627489</v>
       </c>
       <c r="Y16" t="n">
-        <v>20.41977542627484</v>
+        <v>20.41977542627489</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584449</v>
       </c>
       <c r="C17" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584449</v>
       </c>
       <c r="D17" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584449</v>
       </c>
       <c r="E17" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584449</v>
       </c>
       <c r="F17" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584449</v>
       </c>
       <c r="G17" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584449</v>
       </c>
       <c r="H17" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584449</v>
       </c>
       <c r="I17" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584449</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>1.422481774376138</v>
       </c>
       <c r="S17" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584449</v>
       </c>
       <c r="T17" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584449</v>
       </c>
       <c r="U17" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584449</v>
       </c>
       <c r="V17" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584449</v>
       </c>
       <c r="W17" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584449</v>
       </c>
       <c r="X17" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584449</v>
       </c>
       <c r="Y17" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584449</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584449</v>
       </c>
       <c r="C19" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584449</v>
       </c>
       <c r="D19" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584449</v>
       </c>
       <c r="E19" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584449</v>
       </c>
       <c r="F19" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584449</v>
       </c>
       <c r="G19" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584449</v>
       </c>
       <c r="H19" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584449</v>
       </c>
       <c r="I19" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584449</v>
       </c>
       <c r="J19" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584449</v>
       </c>
       <c r="K19" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584449</v>
       </c>
       <c r="L19" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584449</v>
       </c>
       <c r="M19" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584449</v>
       </c>
       <c r="N19" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584449</v>
       </c>
       <c r="O19" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584449</v>
       </c>
       <c r="P19" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584449</v>
       </c>
       <c r="Q19" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584449</v>
       </c>
       <c r="R19" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584449</v>
       </c>
       <c r="S19" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584449</v>
       </c>
       <c r="T19" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584449</v>
       </c>
       <c r="U19" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584449</v>
       </c>
       <c r="V19" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584449</v>
       </c>
       <c r="W19" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584449</v>
       </c>
       <c r="X19" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584449</v>
       </c>
       <c r="Y19" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584449</v>
       </c>
     </row>
     <row r="20">
@@ -29089,7 +29089,7 @@
         <v>81.81126978584454</v>
       </c>
       <c r="T23" t="n">
-        <v>81.81126978584419</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="U23" t="n">
         <v>81.81126978584454</v>
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>81.81126978584442</v>
+        <v>81.81126978584452</v>
       </c>
       <c r="C26" t="n">
-        <v>81.81126978584442</v>
+        <v>81.81126978584452</v>
       </c>
       <c r="D26" t="n">
-        <v>81.81126978584442</v>
+        <v>81.81126978584452</v>
       </c>
       <c r="E26" t="n">
-        <v>81.81126978584442</v>
+        <v>81.81126978584452</v>
       </c>
       <c r="F26" t="n">
-        <v>81.81126978584442</v>
+        <v>81.81126978584452</v>
       </c>
       <c r="G26" t="n">
-        <v>81.81126978584442</v>
+        <v>81.81126978584452</v>
       </c>
       <c r="H26" t="n">
-        <v>81.81126978584442</v>
+        <v>81.81126978584452</v>
       </c>
       <c r="I26" t="n">
-        <v>81.81126978584442</v>
+        <v>81.81126978584452</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>1.422481774376138</v>
       </c>
       <c r="S26" t="n">
-        <v>81.81126978584442</v>
+        <v>81.81126978584452</v>
       </c>
       <c r="T26" t="n">
-        <v>81.81126978584442</v>
+        <v>81.81126978584452</v>
       </c>
       <c r="U26" t="n">
-        <v>81.81126978584442</v>
+        <v>81.81126978584452</v>
       </c>
       <c r="V26" t="n">
-        <v>81.81126978584442</v>
+        <v>81.81126978584452</v>
       </c>
       <c r="W26" t="n">
-        <v>81.81126978584442</v>
+        <v>81.81126978584452</v>
       </c>
       <c r="X26" t="n">
-        <v>81.81126978584442</v>
+        <v>81.81126978584452</v>
       </c>
       <c r="Y26" t="n">
-        <v>81.81126978584442</v>
+        <v>81.81126978584452</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>81.81126978584442</v>
+        <v>81.81126978584452</v>
       </c>
       <c r="C28" t="n">
-        <v>81.81126978584442</v>
+        <v>81.81126978584452</v>
       </c>
       <c r="D28" t="n">
-        <v>81.81126978584442</v>
+        <v>81.81126978584452</v>
       </c>
       <c r="E28" t="n">
-        <v>81.81126978584442</v>
+        <v>81.81126978584452</v>
       </c>
       <c r="F28" t="n">
-        <v>81.81126978584442</v>
+        <v>81.81126978584452</v>
       </c>
       <c r="G28" t="n">
-        <v>81.81126978584442</v>
+        <v>81.81126978584452</v>
       </c>
       <c r="H28" t="n">
-        <v>81.81126978584442</v>
+        <v>81.81126978584452</v>
       </c>
       <c r="I28" t="n">
-        <v>81.81126978584442</v>
+        <v>81.81126978584452</v>
       </c>
       <c r="J28" t="n">
-        <v>81.81126978584442</v>
+        <v>81.81126978584452</v>
       </c>
       <c r="K28" t="n">
-        <v>81.81126978584442</v>
+        <v>81.81126978584452</v>
       </c>
       <c r="L28" t="n">
-        <v>81.81126978584442</v>
+        <v>81.81126978584452</v>
       </c>
       <c r="M28" t="n">
-        <v>81.81126978584442</v>
+        <v>81.81126978584452</v>
       </c>
       <c r="N28" t="n">
-        <v>81.81126978584442</v>
+        <v>81.81126978584452</v>
       </c>
       <c r="O28" t="n">
-        <v>81.81126978584442</v>
+        <v>81.81126978584452</v>
       </c>
       <c r="P28" t="n">
-        <v>81.81126978584442</v>
+        <v>81.81126978584452</v>
       </c>
       <c r="Q28" t="n">
-        <v>81.81126978584442</v>
+        <v>81.81126978584452</v>
       </c>
       <c r="R28" t="n">
-        <v>81.81126978584442</v>
+        <v>81.81126978584452</v>
       </c>
       <c r="S28" t="n">
-        <v>81.81126978584442</v>
+        <v>81.81126978584452</v>
       </c>
       <c r="T28" t="n">
-        <v>81.81126978584442</v>
+        <v>81.81126978584452</v>
       </c>
       <c r="U28" t="n">
-        <v>81.81126978584442</v>
+        <v>81.81126978584452</v>
       </c>
       <c r="V28" t="n">
-        <v>81.81126978584442</v>
+        <v>81.81126978584452</v>
       </c>
       <c r="W28" t="n">
-        <v>81.81126978584442</v>
+        <v>81.81126978584452</v>
       </c>
       <c r="X28" t="n">
-        <v>81.81126978584442</v>
+        <v>81.81126978584452</v>
       </c>
       <c r="Y28" t="n">
-        <v>81.81126978584442</v>
+        <v>81.81126978584452</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>81.81126978584453</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="C29" t="n">
-        <v>81.81126978584453</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="D29" t="n">
-        <v>81.81126978584453</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="E29" t="n">
-        <v>81.81126978584453</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="F29" t="n">
-        <v>81.81126978584453</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="G29" t="n">
-        <v>81.81126978584453</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="H29" t="n">
-        <v>81.81126978584453</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="I29" t="n">
-        <v>81.81126978584453</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29557,28 +29557,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>1.422481774376138</v>
+        <v>1.422481774376166</v>
       </c>
       <c r="S29" t="n">
-        <v>81.81126978584453</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="T29" t="n">
-        <v>81.81126978584453</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="U29" t="n">
-        <v>81.81126978584453</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="V29" t="n">
-        <v>81.81126978584453</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="W29" t="n">
-        <v>81.81126978584453</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="X29" t="n">
-        <v>81.81126978584453</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="Y29" t="n">
-        <v>81.81126978584453</v>
+        <v>81.81126978584454</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>81.81126978584453</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="C31" t="n">
-        <v>81.81126978584453</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="D31" t="n">
-        <v>81.81126978584453</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="E31" t="n">
-        <v>81.81126978584453</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="F31" t="n">
-        <v>81.81126978584453</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="G31" t="n">
-        <v>81.81126978584453</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="H31" t="n">
-        <v>81.81126978584453</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="I31" t="n">
-        <v>81.81126978584453</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="J31" t="n">
-        <v>81.81126978584453</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="K31" t="n">
-        <v>81.81126978584453</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="L31" t="n">
-        <v>81.81126978584453</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="M31" t="n">
-        <v>81.81126978584453</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="N31" t="n">
-        <v>81.81126978584453</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="O31" t="n">
-        <v>81.81126978584453</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="P31" t="n">
-        <v>81.81126978584453</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="Q31" t="n">
-        <v>81.81126978584453</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="R31" t="n">
-        <v>81.81126978584453</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="S31" t="n">
-        <v>81.81126978584453</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="T31" t="n">
-        <v>81.81126978584453</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="U31" t="n">
-        <v>81.81126978584453</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="V31" t="n">
-        <v>81.81126978584453</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="W31" t="n">
-        <v>81.81126978584453</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="X31" t="n">
-        <v>81.81126978584453</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="Y31" t="n">
-        <v>81.81126978584453</v>
+        <v>81.81126978584454</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="C32" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="D32" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="E32" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="F32" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="G32" t="n">
-        <v>84.28818384994923</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="H32" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29794,28 +29794,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>1.422481774376138</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>87.9139125336707</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>87.9139125336707</v>
+        <v>85.71066562432489</v>
       </c>
       <c r="U32" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="V32" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="W32" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="X32" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="Y32" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="C34" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="D34" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="E34" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="F34" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="G34" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="H34" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="I34" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="J34" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="K34" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="L34" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="M34" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="N34" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="O34" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="P34" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="Q34" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="R34" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="S34" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="T34" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="U34" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="V34" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="W34" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="X34" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="Y34" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>87.91391253367063</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="C35" t="n">
-        <v>87.91391253367063</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="D35" t="n">
-        <v>87.91391253367063</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="E35" t="n">
-        <v>87.91391253367063</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="F35" t="n">
-        <v>87.91391253367063</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="G35" t="n">
-        <v>87.91391253367063</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="H35" t="n">
-        <v>87.91391253367063</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="I35" t="n">
-        <v>87.91391253367063</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30031,28 +30031,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>1.422481774376138</v>
+        <v>1.422481774376166</v>
       </c>
       <c r="S35" t="n">
-        <v>87.91391253367063</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="T35" t="n">
-        <v>87.91391253367063</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="U35" t="n">
-        <v>87.91391253367063</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="V35" t="n">
-        <v>87.91391253367063</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="W35" t="n">
-        <v>87.91391253367063</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="X35" t="n">
-        <v>87.91391253367063</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="Y35" t="n">
-        <v>87.91391253367063</v>
+        <v>87.9139125336707</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>87.91391253367063</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="C37" t="n">
-        <v>87.91391253367063</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="D37" t="n">
-        <v>87.91391253367063</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="E37" t="n">
-        <v>87.91391253367063</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="F37" t="n">
-        <v>87.91391253367063</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="G37" t="n">
-        <v>87.91391253367063</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="H37" t="n">
-        <v>87.91391253367063</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="I37" t="n">
-        <v>87.91391253367063</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="J37" t="n">
-        <v>87.91391253367236</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="K37" t="n">
-        <v>87.91391253367063</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="L37" t="n">
-        <v>87.91391253367063</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="M37" t="n">
-        <v>87.91391253367063</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="N37" t="n">
-        <v>87.91391253367063</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="O37" t="n">
-        <v>87.91391253367063</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="P37" t="n">
-        <v>87.91391253367063</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="Q37" t="n">
-        <v>87.91391253367063</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="R37" t="n">
-        <v>87.91391253367063</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="S37" t="n">
-        <v>87.91391253367063</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="T37" t="n">
-        <v>87.91391253367063</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="U37" t="n">
-        <v>87.91391253367063</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="V37" t="n">
-        <v>87.91391253367063</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="W37" t="n">
-        <v>87.91391253367063</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="X37" t="n">
-        <v>87.91391253367063</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="Y37" t="n">
-        <v>87.91391253367063</v>
+        <v>87.9139125336707</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="C38" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="D38" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="E38" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="F38" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="G38" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="H38" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="I38" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>1.422481774376138</v>
       </c>
       <c r="S38" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="T38" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="U38" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="V38" t="n">
-        <v>87.91391253367036</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="W38" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="X38" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="Y38" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367068</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="C40" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="D40" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="E40" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="F40" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="G40" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="H40" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="I40" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="J40" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="K40" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="L40" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="M40" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="N40" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="O40" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="P40" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="Q40" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="R40" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="S40" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="T40" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="U40" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="V40" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="W40" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="X40" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="Y40" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367068</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="C41" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="D41" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="E41" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="F41" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="G41" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="H41" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="I41" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>1.422481774376138</v>
       </c>
       <c r="S41" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="T41" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="U41" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="V41" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="W41" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="X41" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="Y41" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367068</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="C43" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="D43" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="E43" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="F43" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="G43" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="H43" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="I43" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="J43" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="K43" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="L43" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="M43" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="N43" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="O43" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="P43" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="Q43" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="R43" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="S43" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="T43" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="U43" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="V43" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="W43" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="X43" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367068</v>
       </c>
       <c r="Y43" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367068</v>
       </c>
     </row>
     <row r="44">
@@ -31750,25 +31750,25 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.363188445135986</v>
+        <v>2.363188445135987</v>
       </c>
       <c r="H11" t="n">
         <v>24.20200366374893</v>
       </c>
       <c r="I11" t="n">
-        <v>91.10682253110521</v>
+        <v>91.10682253110522</v>
       </c>
       <c r="J11" t="n">
-        <v>200.5726652953606</v>
+        <v>200.5726652953607</v>
       </c>
       <c r="K11" t="n">
-        <v>300.606432177967</v>
+        <v>300.6064321779671</v>
       </c>
       <c r="L11" t="n">
-        <v>372.9288605557975</v>
+        <v>372.9288605557976</v>
       </c>
       <c r="M11" t="n">
-        <v>414.9552130669846</v>
+        <v>414.9552130669847</v>
       </c>
       <c r="N11" t="n">
         <v>421.6696222367273</v>
@@ -31777,16 +31777,16 @@
         <v>398.1706671354063</v>
       </c>
       <c r="P11" t="n">
-        <v>339.8294523961115</v>
+        <v>339.8294523961116</v>
       </c>
       <c r="Q11" t="n">
-        <v>255.1977662046789</v>
+        <v>255.197766204679</v>
       </c>
       <c r="R11" t="n">
-        <v>148.4466361667735</v>
+        <v>148.4466361667736</v>
       </c>
       <c r="S11" t="n">
-        <v>53.85115669353635</v>
+        <v>53.85115669353636</v>
       </c>
       <c r="T11" t="n">
         <v>10.34485741858279</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.264417289300826</v>
+        <v>1.264417289300827</v>
       </c>
       <c r="H12" t="n">
-        <v>12.21160908351061</v>
+        <v>12.21160908351062</v>
       </c>
       <c r="I12" t="n">
-        <v>43.53366544303284</v>
+        <v>43.53366544303285</v>
       </c>
       <c r="J12" t="n">
-        <v>119.4597053896013</v>
+        <v>119.4597053896014</v>
       </c>
       <c r="K12" t="n">
         <v>204.1756637727567</v>
       </c>
       <c r="L12" t="n">
-        <v>274.5393767843746</v>
+        <v>274.5393767843747</v>
       </c>
       <c r="M12" t="n">
-        <v>320.3745035215295</v>
+        <v>320.3745035215296</v>
       </c>
       <c r="N12" t="n">
         <v>328.8538633256566</v>
       </c>
       <c r="O12" t="n">
-        <v>300.8370381258856</v>
+        <v>300.8370381258857</v>
       </c>
       <c r="P12" t="n">
         <v>241.4482453578043</v>
       </c>
       <c r="Q12" t="n">
-        <v>161.4017578412774</v>
+        <v>161.4017578412775</v>
       </c>
       <c r="R12" t="n">
-        <v>78.50478573395834</v>
+        <v>78.50478573395836</v>
       </c>
       <c r="S12" t="n">
         <v>23.4859965797763</v>
       </c>
       <c r="T12" t="n">
-        <v>5.096488986260785</v>
+        <v>5.096488986260786</v>
       </c>
       <c r="U12" t="n">
-        <v>0.08318534798031756</v>
+        <v>0.08318534798031757</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,46 +31911,46 @@
         <v>1.060044980820221</v>
       </c>
       <c r="H13" t="n">
-        <v>9.424763556747061</v>
+        <v>9.424763556747063</v>
       </c>
       <c r="I13" t="n">
         <v>31.87844360502993</v>
       </c>
       <c r="J13" t="n">
-        <v>74.94518014398962</v>
+        <v>74.94518014398963</v>
       </c>
       <c r="K13" t="n">
         <v>123.1579532262038</v>
       </c>
       <c r="L13" t="n">
-        <v>157.5997783303081</v>
+        <v>157.5997783303082</v>
       </c>
       <c r="M13" t="n">
-        <v>166.166869129846</v>
+        <v>166.1668691298461</v>
       </c>
       <c r="N13" t="n">
-        <v>162.2157923831526</v>
+        <v>162.2157923831527</v>
       </c>
       <c r="O13" t="n">
-        <v>149.8325396526618</v>
+        <v>149.8325396526619</v>
       </c>
       <c r="P13" t="n">
         <v>128.2076220439292</v>
       </c>
       <c r="Q13" t="n">
-        <v>88.76431198486414</v>
+        <v>88.76431198486415</v>
       </c>
       <c r="R13" t="n">
-        <v>47.66347704669828</v>
+        <v>47.66347704669829</v>
       </c>
       <c r="S13" t="n">
         <v>18.47369298393057</v>
       </c>
       <c r="T13" t="n">
-        <v>4.529283099868215</v>
+        <v>4.529283099868216</v>
       </c>
       <c r="U13" t="n">
-        <v>0.05782063531746666</v>
+        <v>0.05782063531746667</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,25 +31987,25 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.363188445135986</v>
+        <v>2.363188445135987</v>
       </c>
       <c r="H14" t="n">
         <v>24.20200366374893</v>
       </c>
       <c r="I14" t="n">
-        <v>91.10682253110521</v>
+        <v>91.10682253110522</v>
       </c>
       <c r="J14" t="n">
-        <v>200.5726652953606</v>
+        <v>200.5726652953607</v>
       </c>
       <c r="K14" t="n">
-        <v>300.606432177967</v>
+        <v>300.6064321779671</v>
       </c>
       <c r="L14" t="n">
-        <v>372.9288605557975</v>
+        <v>372.9288605557976</v>
       </c>
       <c r="M14" t="n">
-        <v>414.9552130669846</v>
+        <v>414.9552130669847</v>
       </c>
       <c r="N14" t="n">
         <v>421.6696222367273</v>
@@ -32014,16 +32014,16 @@
         <v>398.1706671354063</v>
       </c>
       <c r="P14" t="n">
-        <v>339.8294523961115</v>
+        <v>339.8294523961116</v>
       </c>
       <c r="Q14" t="n">
-        <v>255.1977662046789</v>
+        <v>255.197766204679</v>
       </c>
       <c r="R14" t="n">
-        <v>148.4466361667735</v>
+        <v>148.4466361667736</v>
       </c>
       <c r="S14" t="n">
-        <v>53.85115669353635</v>
+        <v>53.85115669353636</v>
       </c>
       <c r="T14" t="n">
         <v>10.34485741858279</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.264417289300826</v>
+        <v>1.264417289300827</v>
       </c>
       <c r="H15" t="n">
-        <v>12.21160908351061</v>
+        <v>12.21160908351062</v>
       </c>
       <c r="I15" t="n">
-        <v>43.53366544303284</v>
+        <v>43.53366544303285</v>
       </c>
       <c r="J15" t="n">
-        <v>119.4597053896013</v>
+        <v>119.4597053896014</v>
       </c>
       <c r="K15" t="n">
         <v>204.1756637727567</v>
       </c>
       <c r="L15" t="n">
-        <v>274.5393767843746</v>
+        <v>274.5393767843747</v>
       </c>
       <c r="M15" t="n">
-        <v>320.3745035215295</v>
+        <v>320.3745035215296</v>
       </c>
       <c r="N15" t="n">
         <v>328.8538633256566</v>
       </c>
       <c r="O15" t="n">
-        <v>300.8370381258856</v>
+        <v>300.8370381258857</v>
       </c>
       <c r="P15" t="n">
         <v>241.4482453578043</v>
       </c>
       <c r="Q15" t="n">
-        <v>161.4017578412774</v>
+        <v>161.4017578412775</v>
       </c>
       <c r="R15" t="n">
-        <v>78.50478573395834</v>
+        <v>78.50478573395836</v>
       </c>
       <c r="S15" t="n">
         <v>23.4859965797763</v>
       </c>
       <c r="T15" t="n">
-        <v>5.096488986260785</v>
+        <v>5.096488986260786</v>
       </c>
       <c r="U15" t="n">
-        <v>0.08318534798031756</v>
+        <v>0.08318534798031757</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,46 +32148,46 @@
         <v>1.060044980820221</v>
       </c>
       <c r="H16" t="n">
-        <v>9.424763556747061</v>
+        <v>9.424763556747063</v>
       </c>
       <c r="I16" t="n">
         <v>31.87844360502993</v>
       </c>
       <c r="J16" t="n">
-        <v>74.94518014398962</v>
+        <v>74.94518014398963</v>
       </c>
       <c r="K16" t="n">
         <v>123.1579532262038</v>
       </c>
       <c r="L16" t="n">
-        <v>157.5997783303081</v>
+        <v>157.5997783303082</v>
       </c>
       <c r="M16" t="n">
-        <v>166.166869129846</v>
+        <v>166.1668691298461</v>
       </c>
       <c r="N16" t="n">
-        <v>162.2157923831526</v>
+        <v>162.2157923831527</v>
       </c>
       <c r="O16" t="n">
-        <v>149.8325396526618</v>
+        <v>149.8325396526619</v>
       </c>
       <c r="P16" t="n">
         <v>128.2076220439292</v>
       </c>
       <c r="Q16" t="n">
-        <v>88.76431198486414</v>
+        <v>88.76431198486415</v>
       </c>
       <c r="R16" t="n">
-        <v>47.66347704669828</v>
+        <v>47.66347704669829</v>
       </c>
       <c r="S16" t="n">
         <v>18.47369298393057</v>
       </c>
       <c r="T16" t="n">
-        <v>4.529283099868215</v>
+        <v>4.529283099868216</v>
       </c>
       <c r="U16" t="n">
-        <v>0.05782063531746666</v>
+        <v>0.05782063531746667</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -33178,7 +33178,7 @@
         <v>24.20200366374893</v>
       </c>
       <c r="I29" t="n">
-        <v>91.10682253110521</v>
+        <v>91.10682253110519</v>
       </c>
       <c r="J29" t="n">
         <v>200.5726652953606</v>
@@ -33187,16 +33187,16 @@
         <v>300.606432177967</v>
       </c>
       <c r="L29" t="n">
-        <v>372.9288605557975</v>
+        <v>372.9288605557974</v>
       </c>
       <c r="M29" t="n">
-        <v>414.9552130669846</v>
+        <v>414.9552130669845</v>
       </c>
       <c r="N29" t="n">
-        <v>421.6696222367273</v>
+        <v>421.6696222367272</v>
       </c>
       <c r="O29" t="n">
-        <v>398.1706671354063</v>
+        <v>398.1706671354062</v>
       </c>
       <c r="P29" t="n">
         <v>339.8294523961115</v>
@@ -33208,10 +33208,10 @@
         <v>148.4466361667735</v>
       </c>
       <c r="S29" t="n">
-        <v>53.85115669353635</v>
+        <v>53.85115669353634</v>
       </c>
       <c r="T29" t="n">
-        <v>10.34485741858279</v>
+        <v>10.34485741858278</v>
       </c>
       <c r="U29" t="n">
         <v>0.1890550756108789</v>
@@ -33257,43 +33257,43 @@
         <v>12.21160908351061</v>
       </c>
       <c r="I30" t="n">
-        <v>43.53366544303284</v>
+        <v>43.53366544303283</v>
       </c>
       <c r="J30" t="n">
         <v>119.4597053896013</v>
       </c>
       <c r="K30" t="n">
-        <v>204.1756637727567</v>
+        <v>204.1756637727566</v>
       </c>
       <c r="L30" t="n">
         <v>274.5393767843746</v>
       </c>
       <c r="M30" t="n">
-        <v>320.3745035215295</v>
+        <v>320.3745035215294</v>
       </c>
       <c r="N30" t="n">
-        <v>328.8538633256566</v>
+        <v>328.8538633256565</v>
       </c>
       <c r="O30" t="n">
         <v>300.8370381258856</v>
       </c>
       <c r="P30" t="n">
-        <v>241.4482453578043</v>
+        <v>241.4482453578042</v>
       </c>
       <c r="Q30" t="n">
         <v>161.4017578412774</v>
       </c>
       <c r="R30" t="n">
-        <v>78.50478573395834</v>
+        <v>78.50478573395833</v>
       </c>
       <c r="S30" t="n">
-        <v>23.4859965797763</v>
+        <v>23.48599657977629</v>
       </c>
       <c r="T30" t="n">
-        <v>5.096488986260785</v>
+        <v>5.096488986260784</v>
       </c>
       <c r="U30" t="n">
-        <v>0.08318534798031756</v>
+        <v>0.08318534798031753</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,13 +33333,13 @@
         <v>1.060044980820221</v>
       </c>
       <c r="H31" t="n">
-        <v>9.424763556747061</v>
+        <v>9.42476355674706</v>
       </c>
       <c r="I31" t="n">
-        <v>31.87844360502993</v>
+        <v>31.87844360502992</v>
       </c>
       <c r="J31" t="n">
-        <v>74.94518014398962</v>
+        <v>74.9451801439896</v>
       </c>
       <c r="K31" t="n">
         <v>123.1579532262038</v>
@@ -33360,7 +33360,7 @@
         <v>128.2076220439292</v>
       </c>
       <c r="Q31" t="n">
-        <v>88.76431198486414</v>
+        <v>88.76431198486412</v>
       </c>
       <c r="R31" t="n">
         <v>47.66347704669828</v>
@@ -33372,7 +33372,7 @@
         <v>4.529283099868215</v>
       </c>
       <c r="U31" t="n">
-        <v>0.05782063531746666</v>
+        <v>0.05782063531746665</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33415,7 +33415,7 @@
         <v>24.20200366374893</v>
       </c>
       <c r="I32" t="n">
-        <v>91.10682253110521</v>
+        <v>91.10682253110519</v>
       </c>
       <c r="J32" t="n">
         <v>200.5726652953606</v>
@@ -33424,16 +33424,16 @@
         <v>300.606432177967</v>
       </c>
       <c r="L32" t="n">
-        <v>372.9288605557975</v>
+        <v>372.9288605557974</v>
       </c>
       <c r="M32" t="n">
-        <v>414.9552130669846</v>
+        <v>414.9552130669845</v>
       </c>
       <c r="N32" t="n">
-        <v>421.6696222367273</v>
+        <v>421.6696222367272</v>
       </c>
       <c r="O32" t="n">
-        <v>398.1706671354063</v>
+        <v>398.1706671354062</v>
       </c>
       <c r="P32" t="n">
         <v>339.8294523961115</v>
@@ -33445,10 +33445,10 @@
         <v>148.4466361667735</v>
       </c>
       <c r="S32" t="n">
-        <v>53.85115669353635</v>
+        <v>53.85115669353634</v>
       </c>
       <c r="T32" t="n">
-        <v>10.34485741858279</v>
+        <v>10.34485741858278</v>
       </c>
       <c r="U32" t="n">
         <v>0.1890550756108789</v>
@@ -33494,43 +33494,43 @@
         <v>12.21160908351061</v>
       </c>
       <c r="I33" t="n">
-        <v>43.53366544303284</v>
+        <v>43.53366544303283</v>
       </c>
       <c r="J33" t="n">
         <v>119.4597053896013</v>
       </c>
       <c r="K33" t="n">
-        <v>204.1756637727567</v>
+        <v>204.1756637727566</v>
       </c>
       <c r="L33" t="n">
         <v>274.5393767843746</v>
       </c>
       <c r="M33" t="n">
-        <v>320.3745035215295</v>
+        <v>320.3745035215294</v>
       </c>
       <c r="N33" t="n">
-        <v>328.8538633256566</v>
+        <v>328.8538633256565</v>
       </c>
       <c r="O33" t="n">
         <v>300.8370381258856</v>
       </c>
       <c r="P33" t="n">
-        <v>241.4482453578043</v>
+        <v>241.4482453578042</v>
       </c>
       <c r="Q33" t="n">
         <v>161.4017578412774</v>
       </c>
       <c r="R33" t="n">
-        <v>78.50478573395834</v>
+        <v>78.50478573395833</v>
       </c>
       <c r="S33" t="n">
-        <v>23.4859965797763</v>
+        <v>23.48599657977629</v>
       </c>
       <c r="T33" t="n">
-        <v>5.096488986260785</v>
+        <v>5.096488986260784</v>
       </c>
       <c r="U33" t="n">
-        <v>0.08318534798031756</v>
+        <v>0.08318534798031753</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,13 +33570,13 @@
         <v>1.060044980820221</v>
       </c>
       <c r="H34" t="n">
-        <v>9.424763556747061</v>
+        <v>9.42476355674706</v>
       </c>
       <c r="I34" t="n">
-        <v>31.87844360502993</v>
+        <v>31.87844360502992</v>
       </c>
       <c r="J34" t="n">
-        <v>74.94518014398962</v>
+        <v>74.9451801439896</v>
       </c>
       <c r="K34" t="n">
         <v>123.1579532262038</v>
@@ -33597,7 +33597,7 @@
         <v>128.2076220439292</v>
       </c>
       <c r="Q34" t="n">
-        <v>88.76431198486414</v>
+        <v>88.76431198486412</v>
       </c>
       <c r="R34" t="n">
         <v>47.66347704669828</v>
@@ -33609,7 +33609,7 @@
         <v>4.529283099868215</v>
       </c>
       <c r="U34" t="n">
-        <v>0.05782063531746666</v>
+        <v>0.05782063531746665</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33652,7 +33652,7 @@
         <v>24.20200366374893</v>
       </c>
       <c r="I35" t="n">
-        <v>91.10682253110521</v>
+        <v>91.10682253110519</v>
       </c>
       <c r="J35" t="n">
         <v>200.5726652953606</v>
@@ -33661,16 +33661,16 @@
         <v>300.606432177967</v>
       </c>
       <c r="L35" t="n">
-        <v>372.9288605557975</v>
+        <v>372.9288605557974</v>
       </c>
       <c r="M35" t="n">
-        <v>414.9552130669846</v>
+        <v>414.9552130669845</v>
       </c>
       <c r="N35" t="n">
-        <v>421.6696222367273</v>
+        <v>421.6696222367272</v>
       </c>
       <c r="O35" t="n">
-        <v>398.1706671354063</v>
+        <v>398.1706671354062</v>
       </c>
       <c r="P35" t="n">
         <v>339.8294523961115</v>
@@ -33682,10 +33682,10 @@
         <v>148.4466361667735</v>
       </c>
       <c r="S35" t="n">
-        <v>53.85115669353635</v>
+        <v>53.85115669353634</v>
       </c>
       <c r="T35" t="n">
-        <v>10.34485741858279</v>
+        <v>10.34485741858278</v>
       </c>
       <c r="U35" t="n">
         <v>0.1890550756108789</v>
@@ -33731,43 +33731,43 @@
         <v>12.21160908351061</v>
       </c>
       <c r="I36" t="n">
-        <v>43.53366544303284</v>
+        <v>43.53366544303283</v>
       </c>
       <c r="J36" t="n">
         <v>119.4597053896013</v>
       </c>
       <c r="K36" t="n">
-        <v>204.1756637727567</v>
+        <v>204.1756637727566</v>
       </c>
       <c r="L36" t="n">
         <v>274.5393767843746</v>
       </c>
       <c r="M36" t="n">
-        <v>320.3745035215295</v>
+        <v>320.3745035215294</v>
       </c>
       <c r="N36" t="n">
-        <v>328.8538633256566</v>
+        <v>328.8538633256565</v>
       </c>
       <c r="O36" t="n">
         <v>300.8370381258856</v>
       </c>
       <c r="P36" t="n">
-        <v>241.4482453578043</v>
+        <v>241.4482453578042</v>
       </c>
       <c r="Q36" t="n">
         <v>161.4017578412774</v>
       </c>
       <c r="R36" t="n">
-        <v>78.50478573395834</v>
+        <v>78.50478573395833</v>
       </c>
       <c r="S36" t="n">
-        <v>23.4859965797763</v>
+        <v>23.48599657977629</v>
       </c>
       <c r="T36" t="n">
-        <v>5.096488986260785</v>
+        <v>5.096488986260784</v>
       </c>
       <c r="U36" t="n">
-        <v>0.08318534798031756</v>
+        <v>0.08318534798031753</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,13 +33807,13 @@
         <v>1.060044980820221</v>
       </c>
       <c r="H37" t="n">
-        <v>9.424763556747061</v>
+        <v>9.42476355674706</v>
       </c>
       <c r="I37" t="n">
-        <v>31.87844360502993</v>
+        <v>31.87844360502992</v>
       </c>
       <c r="J37" t="n">
-        <v>74.94518014398962</v>
+        <v>74.9451801439896</v>
       </c>
       <c r="K37" t="n">
         <v>123.1579532262038</v>
@@ -33834,7 +33834,7 @@
         <v>128.2076220439292</v>
       </c>
       <c r="Q37" t="n">
-        <v>88.76431198486414</v>
+        <v>88.76431198486412</v>
       </c>
       <c r="R37" t="n">
         <v>47.66347704669828</v>
@@ -33846,7 +33846,7 @@
         <v>4.529283099868215</v>
       </c>
       <c r="U37" t="n">
-        <v>0.05782063531746666</v>
+        <v>0.05782063531746665</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34945,7 +34945,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N5" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O5" t="n">
         <v>150.7019698410586</v>
@@ -35015,13 +35015,13 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>169.9067907798017</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -35033,7 +35033,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35261,13 +35261,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>169.9067907798016</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>188.6233759407481</v>
       </c>
       <c r="K11" t="n">
-        <v>404.6619937041512</v>
+        <v>404.6619937041513</v>
       </c>
       <c r="L11" t="n">
         <v>554.8236601362607</v>
       </c>
       <c r="M11" t="n">
-        <v>634.1225133325444</v>
+        <v>634.1225133325445</v>
       </c>
       <c r="N11" t="n">
         <v>629.6034830521205</v>
@@ -35428,7 +35428,7 @@
         <v>430.3951648123247</v>
       </c>
       <c r="Q11" t="n">
-        <v>245.2070669901341</v>
+        <v>245.2070669901342</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>35.07798084029174</v>
       </c>
       <c r="K12" t="n">
-        <v>66.33422479839768</v>
+        <v>66.33422479839771</v>
       </c>
       <c r="L12" t="n">
-        <v>506.8253423079596</v>
+        <v>506.8253423079597</v>
       </c>
       <c r="M12" t="n">
         <v>643.9455333495112</v>
       </c>
       <c r="N12" t="n">
-        <v>676.8545255858768</v>
+        <v>676.8545255858769</v>
       </c>
       <c r="O12" t="n">
-        <v>552.1031129581706</v>
+        <v>552.1031129581708</v>
       </c>
       <c r="P12" t="n">
-        <v>142.5518187837662</v>
+        <v>107.4738379434741</v>
       </c>
       <c r="Q12" t="n">
-        <v>21.41998375525588</v>
+        <v>21.41998375525594</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>2.005775453591795</v>
+        <v>2.005775453591742</v>
       </c>
       <c r="K13" t="n">
         <v>121.3082368265959</v>
@@ -35577,16 +35577,16 @@
         <v>226.1705215179616</v>
       </c>
       <c r="N13" t="n">
-        <v>226.7677401886562</v>
+        <v>226.7677401886561</v>
       </c>
       <c r="O13" t="n">
-        <v>194.8374429929765</v>
+        <v>194.8374429929764</v>
       </c>
       <c r="P13" t="n">
         <v>145.9059567350976</v>
       </c>
       <c r="Q13" t="n">
-        <v>23.02204415944471</v>
+        <v>23.02204415944465</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>188.6233759407481</v>
       </c>
       <c r="K14" t="n">
-        <v>404.6619937041512</v>
+        <v>404.6619937041513</v>
       </c>
       <c r="L14" t="n">
         <v>554.8236601362607</v>
       </c>
       <c r="M14" t="n">
-        <v>634.1225133325444</v>
+        <v>634.1225133325445</v>
       </c>
       <c r="N14" t="n">
         <v>629.6034830521205</v>
@@ -35665,7 +35665,7 @@
         <v>430.3951648123247</v>
       </c>
       <c r="Q14" t="n">
-        <v>245.2070669901341</v>
+        <v>245.2070669901342</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35729,19 +35729,19 @@
         <v>330.7994618109763</v>
       </c>
       <c r="L15" t="n">
-        <v>506.8253423079596</v>
+        <v>506.8253423079597</v>
       </c>
       <c r="M15" t="n">
-        <v>246.6474810816486</v>
+        <v>246.6474810816484</v>
       </c>
       <c r="N15" t="n">
         <v>197.5121512423233</v>
       </c>
       <c r="O15" t="n">
-        <v>552.1031129581706</v>
+        <v>552.1031129581708</v>
       </c>
       <c r="P15" t="n">
-        <v>425.9366065834112</v>
+        <v>425.9366065834113</v>
       </c>
       <c r="Q15" t="n">
         <v>231.497271491105</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>2.005775453591681</v>
+        <v>2.005775453591738</v>
       </c>
       <c r="K16" t="n">
-        <v>121.3082368265958</v>
+        <v>121.3082368265959</v>
       </c>
       <c r="L16" t="n">
-        <v>205.6095790168991</v>
+        <v>205.6095790168992</v>
       </c>
       <c r="M16" t="n">
-        <v>226.1705215179615</v>
+        <v>226.1705215179616</v>
       </c>
       <c r="N16" t="n">
         <v>226.7677401886561</v>
       </c>
       <c r="O16" t="n">
-        <v>194.8374429929763</v>
+        <v>194.8374429929764</v>
       </c>
       <c r="P16" t="n">
-        <v>145.9059567350975</v>
+        <v>145.9059567350976</v>
       </c>
       <c r="Q16" t="n">
-        <v>23.02204415944459</v>
+        <v>23.02204415944465</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35890,7 +35890,7 @@
         <v>554.8236601362607</v>
       </c>
       <c r="M17" t="n">
-        <v>634.1225133325445</v>
+        <v>634.1225133325444</v>
       </c>
       <c r="N17" t="n">
         <v>629.6034830521205</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>101.6400704786566</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>330.7994618109763</v>
       </c>
       <c r="L18" t="n">
-        <v>506.8253423079596</v>
+        <v>135.9849970045004</v>
       </c>
       <c r="M18" t="n">
-        <v>178.2404695995112</v>
+        <v>643.9455333495112</v>
       </c>
       <c r="N18" t="n">
         <v>676.8545255858768</v>
       </c>
       <c r="O18" t="n">
-        <v>158.2407936814412</v>
+        <v>552.1031129581706</v>
       </c>
       <c r="P18" t="n">
-        <v>425.9366065834112</v>
+        <v>248.9269270746465</v>
       </c>
       <c r="Q18" t="n">
-        <v>231.497271491105</v>
+        <v>21.41998375525588</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>63.39726981316139</v>
+        <v>63.39726981316133</v>
       </c>
       <c r="K19" t="n">
         <v>182.6997311861655</v>
@@ -36048,10 +36048,10 @@
         <v>267.0010733764688</v>
       </c>
       <c r="M19" t="n">
-        <v>287.5620158775312</v>
+        <v>287.5620158775311</v>
       </c>
       <c r="N19" t="n">
-        <v>288.1592345482258</v>
+        <v>288.1592345482257</v>
       </c>
       <c r="O19" t="n">
         <v>256.228937352546</v>
@@ -36060,7 +36060,7 @@
         <v>207.2974510946672</v>
       </c>
       <c r="Q19" t="n">
-        <v>84.4135385190143</v>
+        <v>84.41353851901424</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36206,10 +36206,10 @@
         <v>506.8253423079596</v>
       </c>
       <c r="M21" t="n">
-        <v>246.6474810816486</v>
+        <v>178.2404695995112</v>
       </c>
       <c r="N21" t="n">
-        <v>197.5121512423233</v>
+        <v>265.9191627244606</v>
       </c>
       <c r="O21" t="n">
         <v>552.1031129581706</v>
@@ -36443,10 +36443,10 @@
         <v>506.8253423079596</v>
       </c>
       <c r="M24" t="n">
-        <v>178.2404695995112</v>
+        <v>246.6474810816486</v>
       </c>
       <c r="N24" t="n">
-        <v>265.9191627244606</v>
+        <v>197.5121512423233</v>
       </c>
       <c r="O24" t="n">
         <v>552.1031129581706</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>118.7131140633435</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>330.7994618109763</v>
+        <v>66.33422479839768</v>
       </c>
       <c r="L27" t="n">
         <v>506.8253423079596</v>
       </c>
       <c r="M27" t="n">
-        <v>246.6474810816486</v>
+        <v>643.9455333495112</v>
       </c>
       <c r="N27" t="n">
-        <v>197.5121512423233</v>
+        <v>676.8545255858768</v>
       </c>
       <c r="O27" t="n">
         <v>552.1031129581706</v>
       </c>
       <c r="P27" t="n">
-        <v>425.9366065834112</v>
+        <v>107.4738379434741</v>
       </c>
       <c r="Q27" t="n">
-        <v>231.497271491105</v>
+        <v>56.49796459554802</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.39726981316126</v>
+        <v>63.39726981316136</v>
       </c>
       <c r="K28" t="n">
-        <v>182.6997311861654</v>
+        <v>182.6997311861655</v>
       </c>
       <c r="L28" t="n">
-        <v>267.0010733764687</v>
+        <v>267.0010733764688</v>
       </c>
       <c r="M28" t="n">
-        <v>287.5620158775311</v>
+        <v>287.5620158775312</v>
       </c>
       <c r="N28" t="n">
-        <v>288.1592345482256</v>
+        <v>288.1592345482258</v>
       </c>
       <c r="O28" t="n">
-        <v>256.2289373525459</v>
+        <v>256.228937352546</v>
       </c>
       <c r="P28" t="n">
-        <v>207.2974510946671</v>
+        <v>207.2974510946672</v>
       </c>
       <c r="Q28" t="n">
-        <v>84.41353851901417</v>
+        <v>84.41353851901427</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,22 +36832,22 @@
         <v>188.6233759407481</v>
       </c>
       <c r="K29" t="n">
-        <v>404.6619937041512</v>
+        <v>404.6619937041511</v>
       </c>
       <c r="L29" t="n">
-        <v>554.8236601362607</v>
+        <v>554.8236601362606</v>
       </c>
       <c r="M29" t="n">
-        <v>634.1225133325444</v>
+        <v>634.1225133325443</v>
       </c>
       <c r="N29" t="n">
         <v>629.6034830521205</v>
       </c>
       <c r="O29" t="n">
-        <v>548.8726369764649</v>
+        <v>548.8726369764648</v>
       </c>
       <c r="P29" t="n">
-        <v>430.3951648123247</v>
+        <v>430.3951648123246</v>
       </c>
       <c r="Q29" t="n">
         <v>245.2070669901341</v>
@@ -36908,22 +36908,22 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>101.6400704786566</v>
+        <v>118.7131140633435</v>
       </c>
       <c r="K30" t="n">
         <v>330.7994618109763</v>
       </c>
       <c r="L30" t="n">
-        <v>506.8253423079596</v>
+        <v>506.8253423079595</v>
       </c>
       <c r="M30" t="n">
-        <v>178.2404695995112</v>
+        <v>178.2404695995111</v>
       </c>
       <c r="N30" t="n">
-        <v>676.8545255858768</v>
+        <v>265.9191627244609</v>
       </c>
       <c r="O30" t="n">
-        <v>158.2407936814412</v>
+        <v>552.1031129581706</v>
       </c>
       <c r="P30" t="n">
         <v>425.9366065834112</v>
@@ -37066,25 +37066,25 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>188.6233759407481</v>
+        <v>188.6233759407484</v>
       </c>
       <c r="K32" t="n">
-        <v>404.6619937041512</v>
+        <v>404.6619937041511</v>
       </c>
       <c r="L32" t="n">
-        <v>554.8236601362607</v>
+        <v>554.8236601362606</v>
       </c>
       <c r="M32" t="n">
-        <v>634.1225133325444</v>
+        <v>634.1225133325443</v>
       </c>
       <c r="N32" t="n">
         <v>629.6034830521205</v>
       </c>
       <c r="O32" t="n">
-        <v>548.8726369764649</v>
+        <v>548.8726369764648</v>
       </c>
       <c r="P32" t="n">
-        <v>430.3951648123247</v>
+        <v>430.3951648123246</v>
       </c>
       <c r="Q32" t="n">
         <v>245.2070669901341</v>
@@ -37145,22 +37145,22 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>118.7131140633435</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>330.7994618109763</v>
       </c>
       <c r="L33" t="n">
-        <v>506.8253423079596</v>
+        <v>506.8253423079595</v>
       </c>
       <c r="M33" t="n">
-        <v>640.509800358378</v>
+        <v>643.9455333495109</v>
       </c>
       <c r="N33" t="n">
-        <v>197.5121512423233</v>
+        <v>312.789532314534</v>
       </c>
       <c r="O33" t="n">
-        <v>158.2407936814412</v>
+        <v>158.2407936814411</v>
       </c>
       <c r="P33" t="n">
         <v>425.9366065834112</v>
@@ -37306,25 +37306,25 @@
         <v>188.6233759407481</v>
       </c>
       <c r="K35" t="n">
-        <v>404.6619937041512</v>
+        <v>404.6619937041511</v>
       </c>
       <c r="L35" t="n">
-        <v>554.8236601362607</v>
+        <v>554.8236601362606</v>
       </c>
       <c r="M35" t="n">
-        <v>634.1225133325444</v>
+        <v>634.1225133325443</v>
       </c>
       <c r="N35" t="n">
         <v>629.6034830521205</v>
       </c>
       <c r="O35" t="n">
-        <v>548.8726369764649</v>
+        <v>548.8726369764648</v>
       </c>
       <c r="P35" t="n">
-        <v>430.3951648123247</v>
+        <v>430.3951648123246</v>
       </c>
       <c r="Q35" t="n">
-        <v>151.8088002649101</v>
+        <v>151.8088002649105</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37382,22 +37382,22 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>118.7131140633435</v>
       </c>
       <c r="K36" t="n">
         <v>330.7994618109763</v>
       </c>
       <c r="L36" t="n">
-        <v>135.9849970045004</v>
+        <v>506.8253423079595</v>
       </c>
       <c r="M36" t="n">
-        <v>643.9455333495112</v>
+        <v>246.6474810816488</v>
       </c>
       <c r="N36" t="n">
-        <v>676.8545255858768</v>
+        <v>197.5121512423232</v>
       </c>
       <c r="O36" t="n">
-        <v>165.0161457135572</v>
+        <v>552.1031129581706</v>
       </c>
       <c r="P36" t="n">
         <v>425.9366065834112</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>69.4999125609892</v>
+        <v>69.49991256098753</v>
       </c>
       <c r="K37" t="n">
         <v>188.8023739339916</v>
@@ -37479,10 +37479,10 @@
         <v>262.3315801003722</v>
       </c>
       <c r="P37" t="n">
-        <v>213.4000938424933</v>
+        <v>213.4000938424934</v>
       </c>
       <c r="Q37" t="n">
-        <v>90.51618126684038</v>
+        <v>90.51618126684043</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37549,7 +37549,7 @@
         <v>554.8236601362607</v>
       </c>
       <c r="M38" t="n">
-        <v>540.7242466073204</v>
+        <v>634.1225133325444</v>
       </c>
       <c r="N38" t="n">
         <v>629.6034830521205</v>
@@ -37558,7 +37558,7 @@
         <v>548.8726369764649</v>
       </c>
       <c r="P38" t="n">
-        <v>430.3951648123247</v>
+        <v>336.9968980871</v>
       </c>
       <c r="Q38" t="n">
         <v>245.2070669901341</v>
@@ -37628,10 +37628,10 @@
         <v>506.8253423079596</v>
       </c>
       <c r="M39" t="n">
-        <v>246.6474810816487</v>
+        <v>178.2404695995112</v>
       </c>
       <c r="N39" t="n">
-        <v>197.5121512423233</v>
+        <v>265.9191627244609</v>
       </c>
       <c r="O39" t="n">
         <v>552.1031129581706</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>69.49991256098757</v>
+        <v>69.49991256098753</v>
       </c>
       <c r="K40" t="n">
-        <v>188.8023739339917</v>
+        <v>188.8023739339916</v>
       </c>
       <c r="L40" t="n">
         <v>273.103716124295</v>
@@ -37719,7 +37719,7 @@
         <v>213.4000938424934</v>
       </c>
       <c r="Q40" t="n">
-        <v>90.51618126684048</v>
+        <v>90.51618126684043</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37865,13 +37865,13 @@
         <v>506.8253423079596</v>
       </c>
       <c r="M42" t="n">
-        <v>640.5098003583781</v>
+        <v>178.2404695995112</v>
       </c>
       <c r="N42" t="n">
-        <v>197.5121512423233</v>
+        <v>265.9191627244609</v>
       </c>
       <c r="O42" t="n">
-        <v>158.2407936814412</v>
+        <v>552.1031129581706</v>
       </c>
       <c r="P42" t="n">
         <v>425.9366065834112</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>69.49991256098755</v>
+        <v>69.49991256098753</v>
       </c>
       <c r="K43" t="n">
-        <v>188.8023739339917</v>
+        <v>188.8023739339916</v>
       </c>
       <c r="L43" t="n">
         <v>273.103716124295</v>
@@ -37956,7 +37956,7 @@
         <v>213.4000938424934</v>
       </c>
       <c r="Q43" t="n">
-        <v>90.51618126684046</v>
+        <v>90.51618126684043</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>95.22510921552413</v>
+        <v>188.6233759407481</v>
       </c>
       <c r="K44" t="n">
         <v>404.6619937041512</v>
@@ -38035,7 +38035,7 @@
         <v>430.3951648123247</v>
       </c>
       <c r="Q44" t="n">
-        <v>245.2070669901341</v>
+        <v>151.8088002649101</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38102,10 +38102,10 @@
         <v>506.8253423079596</v>
       </c>
       <c r="M45" t="n">
-        <v>246.6474810816487</v>
+        <v>178.2404695995112</v>
       </c>
       <c r="N45" t="n">
-        <v>197.5121512423233</v>
+        <v>265.9191627244609</v>
       </c>
       <c r="O45" t="n">
         <v>552.1031129581706</v>
